--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P30_trail14 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P30_trail14 Features.xlsx
@@ -4911,7 +4911,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4922,29 +4922,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4965,115 +4963,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5090,72 +5078,66 @@
         <v>2.249328664582266e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>2.385608262312449</v>
+        <v>1.416048201464416e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>7.319623914341197</v>
+        <v>7.126212903933319e-07</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.416048201464416e-07</v>
+        <v>-0.100296278929413</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7.126212903933319e-07</v>
+        <v>0.2459833569720115</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.100296278929413</v>
+        <v>0.07041380587319809</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2459833569720115</v>
+        <v>1.842223341574628</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.07041380587319809</v>
+        <v>2.313201835498577</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.835209879549588</v>
+        <v>4.68759504223952</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.313201835498577</v>
+        <v>1.238999697215219e-17</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.68759504223952</v>
+        <v>3720203675.06783</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.238999697215219e-17</v>
+        <v>3.163217507330802e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>3720203675.06783</v>
+        <v>171.4765097024562</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.163217507330802e-08</v>
+        <v>0.0001465872341102774</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>171.4765097024562</v>
+        <v>9.148416117179751</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001465872341102774</v>
+        <v>1.271451164870459</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.148416117179751</v>
+        <v>0.01226840123640638</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.271451164870459</v>
+        <v>3.275380623931634</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01226840123640638</v>
+        <v>0.9588269209389045</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.275380623931634</v>
+        <v>1.374270968639495</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9588269209389045</v>
+        <v>36</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.374270968639495</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.7449738987480095</v>
       </c>
     </row>
@@ -5170,72 +5152,66 @@
         <v>1.834645778579698e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1.876203844659847</v>
+        <v>1.113914219262459e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>5.166590280344108</v>
+        <v>7.106469405607767e-07</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.113914219262459e-07</v>
+        <v>-0.09373783300921855</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>7.106469405607767e-07</v>
+        <v>0.2276542723126974</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.09373783300921855</v>
+        <v>0.06048445539308798</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2276542723126974</v>
+        <v>1.842415777921996</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.06048445539308798</v>
+        <v>2.424883578384304</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.831522291054916</v>
+        <v>4.577171309688353</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.424883578384304</v>
+        <v>1.299502258542787e-17</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.577171309688353</v>
+        <v>3545113106.838054</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.299502258542787e-17</v>
+        <v>3.318983057698766e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>3545113106.838054</v>
+        <v>163.319194938622</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.318983057698766e-08</v>
+        <v>0.000127487404578526</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>163.319194938622</v>
+        <v>8.822711118353407</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.000127487404578526</v>
+        <v>1.244774326783469</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.822711118353407</v>
+        <v>0.009923649082911301</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.244774326783469</v>
+        <v>3.343462858036365</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.009923649082911301</v>
+        <v>0.9575940104473072</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.343462858036365</v>
+        <v>1.362383511412275</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9575940104473072</v>
+        <v>34</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.362383511412275</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.7082408097852181</v>
       </c>
     </row>
@@ -5250,72 +5226,66 @@
         <v>1.544587001626773e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1.339316464101977</v>
+        <v>8.914443760654078e-08</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>3.144309141271394</v>
+        <v>7.091443612783566e-07</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>8.914443760654078e-08</v>
+        <v>-0.08441968064559556</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>7.091443612783566e-07</v>
+        <v>0.2096707129374576</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.08441968064559556</v>
+        <v>0.05098870660461375</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2096707129374576</v>
+        <v>1.837241776207564</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.05098870660461375</v>
+        <v>2.128828356109203</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.825187226201855</v>
+        <v>4.652966663051521</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.128828356109203</v>
+        <v>1.658207455129727e-17</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.652966663051521</v>
+        <v>2660861312.287567</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.658207455129727e-17</v>
+        <v>4.402831084742208e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>2660861312.287567</v>
+        <v>117.4041210698004</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>4.402831084742208e-08</v>
+        <v>0.0001218262183888478</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>117.4041210698004</v>
+        <v>8.414803456087824</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001218262183888478</v>
+        <v>1.341002989159368</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.414803456087824</v>
+        <v>0.008626382611243929</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.341002989159368</v>
+        <v>3.232733714812873</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.008626382611243929</v>
+        <v>0.9570162134686587</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.232733714812873</v>
+        <v>1.388168059638941</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9570162134686587</v>
+        <v>30</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.388168059638941</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.6477242683695145</v>
       </c>
     </row>
@@ -5330,72 +5300,66 @@
         <v>1.34161605209927e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.839728240115175</v>
+        <v>7.292220251520127e-08</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>1.515640288855735</v>
+        <v>7.080143002501417e-07</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>7.292220251520127e-08</v>
+        <v>-0.07214183502597167</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>7.080143002501417e-07</v>
+        <v>0.1982784128850842</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.07214183502597167</v>
+        <v>0.04444340671026323</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1982784128850842</v>
+        <v>1.844561665607088</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.04444340671026323</v>
+        <v>1.854970223959622</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.831530875153624</v>
+        <v>4.609055198830111</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.854970223959622</v>
+        <v>2.211056734244853e-17</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.609055198830111</v>
+        <v>1983030706.604333</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.211056734244853e-17</v>
+        <v>5.932693351705656e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>1983030706.604333</v>
+        <v>86.94783344311431</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>5.932693351705656e-08</v>
+        <v>0.0001245807890857166</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>86.94783344311431</v>
+        <v>7.712538032827993</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001245807890857166</v>
+        <v>1.333280024880817</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.712538032827993</v>
+        <v>0.007410469338833356</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.333280024880817</v>
+        <v>3.261163303937431</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.007410469338833356</v>
+        <v>0.9586611710398898</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.261163303937431</v>
+        <v>1.40124581624962</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9586611710398898</v>
+        <v>29</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.40124581624962</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.4845277887106516</v>
       </c>
     </row>
@@ -5410,72 +5374,66 @@
         <v>1.198114416573282e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.4051869526320661</v>
+        <v>6.10096990500722e-08</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.3335085901104575</v>
+        <v>7.071940492641026e-07</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>6.10096990500722e-08</v>
+        <v>-0.05662940395127126</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>7.071940492641026e-07</v>
+        <v>0.1986287057972074</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.05662940395127126</v>
+        <v>0.04259443705251263</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1986287057972074</v>
+        <v>1.840624181216599</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.04259443705251263</v>
+        <v>1.94927434090741</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.827810720465735</v>
+        <v>4.281999648650007</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.94927434090741</v>
+        <v>2.467422614340348e-17</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.281999648650007</v>
+        <v>1820859820.340349</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2.467422614340348e-17</v>
+        <v>6.472441210490151e-08</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>1820859820.340349</v>
+        <v>81.80814898037794</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>6.472441210490151e-08</v>
+        <v>0.0001509296187405919</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>81.80814898037794</v>
+        <v>8.507293283843797</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001509296187405919</v>
+        <v>1.331578963824478</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.507293283843797</v>
+        <v>0.01092338611560291</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.331578963824478</v>
+        <v>3.045196122579131</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01092338611560291</v>
+        <v>0.9572242190985577</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.045196122579131</v>
+        <v>1.384360709669806</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9572242190985577</v>
+        <v>29</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.384360709669806</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.3636913300337064</v>
       </c>
     </row>
@@ -5490,72 +5448,66 @@
         <v>1.100588894763708e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.048598952484092</v>
+        <v>5.169661113722173e-08</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.431243732991792</v>
+        <v>7.066513957436413e-07</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>5.169661113722173e-08</v>
+        <v>-0.03718440371142162</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>7.066513957436413e-07</v>
+        <v>0.208838748205664</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.03718440371142162</v>
+        <v>0.04493003705520079</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.208838748205664</v>
+        <v>1.837336785390868</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.04493003705520079</v>
+        <v>2.028605952884214</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.822756931746868</v>
+        <v>4.10253057599731</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.028605952884214</v>
+        <v>2.688024002582979e-17</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.10253057599731</v>
+        <v>1694697274.103437</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2.688024002582979e-17</v>
+        <v>6.954240431988739e-08</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>1694697274.103437</v>
+        <v>77.2000184648526</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>6.954240431988739e-08</v>
+        <v>0.0001755913659388918</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>77.2000184648526</v>
+        <v>10.1156288020298</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001755913659388918</v>
+        <v>1.213458209156971</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>10.1156288020298</v>
+        <v>0.01796755263974462</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.213458209156971</v>
+        <v>2.770629362913277</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01796755263974462</v>
+        <v>0.9581399287963596</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.770629362913277</v>
+        <v>1.417201358771628</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9581399287963596</v>
+        <v>12</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.417201358771628</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.3260849322979297</v>
       </c>
     </row>
@@ -5570,72 +5522,66 @@
         <v>1.046584297565091e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.1898723908793825</v>
+        <v>4.429729302398847e-08</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.8422257924179553</v>
+        <v>7.063681543015263e-07</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>4.429729302398847e-08</v>
+        <v>-0.0156174144560975</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>7.063681543015263e-07</v>
+        <v>0.2221299464681236</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.0156174144560975</v>
+        <v>0.04953143291972194</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.2221299464681236</v>
+        <v>1.813108749020265</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.04953143291972194</v>
+        <v>2.011063277391966</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.786061907190869</v>
+        <v>5.120413423030751</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.011063277391966</v>
+        <v>3.583062580629302e-17</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>5.120413423030751</v>
+        <v>1371533356.097536</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>3.583062580629302e-17</v>
+        <v>8.563036825619021e-08</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>1371533356.097536</v>
+        <v>67.4011244575658</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>8.563036825619021e-08</v>
+        <v>0.0001777716586450534</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>67.4011244575658</v>
+        <v>11.14983012199974</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001777716586450534</v>
+        <v>1.146387855790144</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>11.14983012199974</v>
+        <v>0.02210034358831651</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.146387855790144</v>
+        <v>2.658741179414149</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.02210034358831651</v>
+        <v>0.9579977049134051</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.658741179414149</v>
+        <v>1.526494191602574</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9579977049134051</v>
+        <v>13</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.526494191602574</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.3363905077804119</v>
       </c>
     </row>
@@ -5650,72 +5596,66 @@
         <v>1.03470792576711e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.2490317942717247</v>
+        <v>4.066080878401646e-08</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.9372008746220946</v>
+        <v>7.063084851931587e-07</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>4.066080878401646e-08</v>
+        <v>0.003425887421843893</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>7.063084851931587e-07</v>
+        <v>0.2268553406271966</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.003425887421843893</v>
+        <v>0.05144221855430776</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.2268553406271966</v>
+        <v>1.805156180179212</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.05144221855430776</v>
+        <v>1.90387172180482</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.772860125715311</v>
+        <v>4.293555451542076</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.90387172180482</v>
+        <v>6.521077187663957e-17</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.293555451542076</v>
+        <v>753806164.5204515</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>6.521077187663957e-17</v>
+        <v>1.560945381365971e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>753806164.5204515</v>
+        <v>37.05430827118379</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.560945381365971e-07</v>
+        <v>0.0001783898273367577</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>37.05430827118379</v>
+        <v>9.150324761596703</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001783898273367577</v>
+        <v>1.412765847746887</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.150324761596703</v>
+        <v>0.01493630253323894</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.412765847746887</v>
+        <v>2.909829527994961</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01493630253323894</v>
+        <v>0.957805426417903</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.909829527994961</v>
+        <v>1.544912432821537</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.957805426417903</v>
+        <v>13</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.544912432821537</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2499960608035088</v>
       </c>
     </row>
@@ -5730,72 +5670,66 @@
         <v>1.057030698541394e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.1395394729481954</v>
+        <v>4.488480467522621e-08</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.7609829083793147</v>
+        <v>7.064204813495061e-07</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>4.488480467522621e-08</v>
+        <v>0.01690667039938557</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>7.064204813495061e-07</v>
+        <v>0.2210807833782234</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.01690667039938557</v>
+        <v>0.04914836353218062</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.2210807833782234</v>
+        <v>1.776844909191562</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.04914836353218062</v>
+        <v>1.756948759493064</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.737214561065781</v>
+        <v>4.159668814997009</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.756948759493064</v>
+        <v>1.127123329306658e-16</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.159668814997009</v>
+        <v>441954130.2167454</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.127123329306658e-16</v>
+        <v>2.631363688356018e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>441954130.2167454</v>
+        <v>22.01536208800855</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>2.631363688356018e-07</v>
+        <v>0.0001962035963359398</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>22.01536208800855</v>
+        <v>9.145172235676617</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001962035963359398</v>
+        <v>1.553151193316517</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>9.145172235676617</v>
+        <v>0.01640932595479151</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.553151193316517</v>
+        <v>2.828127151147265</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01640932595479151</v>
+        <v>0.9559758566723476</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.828127151147265</v>
+        <v>1.588326018043742</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9559758566723476</v>
+        <v>13</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.588326018043742</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.1871200650989197</v>
       </c>
     </row>
@@ -5810,72 +5744,66 @@
         <v>1.100326995917471e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.03853547252512333</v>
+        <v>4.724895618084871e-08</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.4993222076646924</v>
+        <v>7.066502338500797e-07</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>4.724895618084871e-08</v>
+        <v>0.02496956191715625</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>7.066502338500797e-07</v>
+        <v>0.2095913862452809</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.02496956191715625</v>
+        <v>0.04454545017507885</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.2095913862452809</v>
+        <v>1.773570739783266</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.04454545017507885</v>
+        <v>1.739126895301541</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.723513042252347</v>
+        <v>3.891359000579886</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.739126895301541</v>
+        <v>1.287912474812673e-16</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.891359000579886</v>
+        <v>382745010.4372756</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.287912474812673e-16</v>
+        <v>3.035524836629675e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>382745010.4372756</v>
+        <v>18.8671119110544</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>3.035524836629675e-07</v>
+        <v>0.0001838102321181834</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>18.8671119110544</v>
+        <v>10.5248736462964</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001838102321181834</v>
+        <v>1.188154718886191</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>10.5248736462964</v>
+        <v>0.02036120445879089</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.188154718886191</v>
+        <v>2.684715583659507</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.02036120445879089</v>
+        <v>0.9563172174652592</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.684715583659507</v>
+        <v>1.594994081298985</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9563172174652592</v>
+        <v>13</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.594994081298985</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.1829052672624836</v>
       </c>
     </row>
@@ -5890,72 +5818,66 @@
         <v>1.154422538536055e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.2062565690914371</v>
+        <v>4.896905635688628e-08</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.3029983263525047</v>
+        <v>7.069626183401253e-07</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>4.896905635688628e-08</v>
+        <v>0.03014031084317844</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>7.069626183401253e-07</v>
+        <v>0.1975814467095904</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.03014031084317844</v>
+        <v>0.03994272116726349</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1975814467095904</v>
+        <v>1.770878445812433</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.03994272116726349</v>
+        <v>1.714382246863203</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.714362484351702</v>
+        <v>3.887881057825353</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.714382246863203</v>
+        <v>1.290217735332994e-16</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.887881057825353</v>
+        <v>384614928.9303027</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.290217735332994e-16</v>
+        <v>3.017313810801632e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>384614928.9303027</v>
+        <v>19.08601594797837</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>3.017313810801632e-07</v>
+        <v>0.0001891015774628622</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>19.08601594797837</v>
+        <v>11.66212700039912</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001891015774628622</v>
+        <v>1.084183487924552</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>11.66212700039912</v>
+        <v>0.02571879903055898</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.084183487924552</v>
+        <v>2.452520557376624</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.02571879903055898</v>
+        <v>0.9568156548948374</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.452520557376624</v>
+        <v>1.619666672840139</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9568156548948374</v>
+        <v>14</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.619666672840139</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.1891699323952959</v>
       </c>
     </row>
@@ -5970,72 +5892,66 @@
         <v>1.215632463907668e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.3446834770884375</v>
+        <v>5.113665543285809e-08</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.1855942385189708</v>
+        <v>7.073454895128573e-07</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>5.113665543285809e-08</v>
+        <v>0.03443667370060038</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>7.073454895128573e-07</v>
+        <v>0.1867937544303274</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.03443667370060038</v>
+        <v>0.03607337700218159</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1867937544303274</v>
+        <v>1.771304485695379</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.03607337700218159</v>
+        <v>1.68953744291006</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.709202035128771</v>
+        <v>3.861360706466483</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.68953744291006</v>
+        <v>1.308001378915766e-16</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.861360706466483</v>
+        <v>374555158.7867014</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.308001378915766e-16</v>
+        <v>3.089710155050963e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>374555158.7867014</v>
+        <v>18.35015630518939</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>3.089710155050963e-07</v>
+        <v>0.0001877828901459543</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>18.35015630518939</v>
+        <v>10.92773829293373</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001877828901459543</v>
+        <v>1.139889021932505</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>10.92773829293373</v>
+        <v>0.0224241809953808</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.139889021932505</v>
+        <v>2.557311460883393</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.0224241809953808</v>
+        <v>0.9556471170842835</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.557311460883393</v>
+        <v>1.639244581850801</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9556471170842835</v>
+        <v>14</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.639244581850801</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.1838425888405721</v>
       </c>
     </row>
@@ -6050,72 +5966,66 @@
         <v>1.285074895973392e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.4641351661610346</v>
+        <v>5.433671417969829e-08</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.1000486610839841</v>
+        <v>7.078037749252846e-07</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>5.433671417969829e-08</v>
+        <v>0.03890579319460675</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>7.078037749252846e-07</v>
+        <v>0.1775686307753556</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.03890579319460675</v>
+        <v>0.03303830135385032</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1775686307753556</v>
+        <v>1.760922820810227</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.03303830135385032</v>
+        <v>1.666183376762983</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.698261527005163</v>
+        <v>3.833406896365315</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.666183376762983</v>
+        <v>1.327147238988357e-16</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.833406896365315</v>
+        <v>364368225.1354264</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.327147238988357e-16</v>
+        <v>3.176597345429175e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>364368225.1354264</v>
+        <v>17.61976460960398</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>3.176597345429175e-07</v>
+        <v>0.0001959048831927515</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>17.61976460960398</v>
+        <v>9.401269797779007</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001959048831927515</v>
+        <v>1.370165114064643</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.401269797779007</v>
+        <v>0.0173148324749947</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.370165114064643</v>
+        <v>2.684330759860694</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.0173148324749947</v>
+        <v>0.9547754539016666</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.684330759860694</v>
+        <v>1.631273130603246</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9547754539016666</v>
+        <v>14</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.631273130603246</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.1661320368606382</v>
       </c>
     </row>
@@ -6130,72 +6040,66 @@
         <v>1.364885005960621e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.5750846346438763</v>
+        <v>5.808397843171716e-08</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.008713076221035898</v>
+        <v>7.08346147745373e-07</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>5.808397843171716e-08</v>
+        <v>0.04274243012810106</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>7.08346147745373e-07</v>
+        <v>0.1690524890546569</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.04274243012810106</v>
+        <v>0.03040099629901046</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1690524890546569</v>
+        <v>1.755316982199935</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.03040099629901046</v>
+        <v>1.790229107638485</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.690139189141086</v>
+        <v>3.843660636138226</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.790229107638485</v>
+        <v>1.320075818081671e-16</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3.843660636138226</v>
+        <v>371218302.9646088</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.320075818081671e-16</v>
+        <v>3.094799746130057e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>371218302.9646088</v>
+        <v>18.19104455230859</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>3.094799746130057e-07</v>
+        <v>0.0001971414827357631</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>18.19104455230859</v>
+        <v>9.377208123403058</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001971414827357631</v>
+        <v>1.38962488691748</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>9.377208123403058</v>
+        <v>0.01733505120582981</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.38962488691748</v>
+        <v>2.68808607235197</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01733505120582981</v>
+        <v>0.9540006412285953</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.68808607235197</v>
+        <v>1.622096131513226</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9540006412285953</v>
+        <v>18</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.622096131513226</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.161031645649466</v>
       </c>
     </row>
@@ -6210,72 +6114,66 @@
         <v>1.453490172591591e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.6720465436230012</v>
+        <v>6.136792324082741e-08</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0.07160799646672267</v>
+        <v>7.089643875682005e-07</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>6.136792324082741e-08</v>
+        <v>0.04472187692667508</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>7.089643875682005e-07</v>
+        <v>0.160065845103959</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.04472187692667508</v>
+        <v>0.02761870017176936</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.160065845103959</v>
+        <v>1.74078268357889</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.02761870017176936</v>
+        <v>1.854003777788309</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.678780683878331</v>
+        <v>3.787078021102627</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.854003777788309</v>
+        <v>1.359816925533203e-16</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.787078021102627</v>
+        <v>359443740.3483693</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.359816925533203e-16</v>
+        <v>3.189441851611807e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>359443740.3483693</v>
+        <v>17.56880781819027</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>3.189441851611807e-07</v>
+        <v>0.0001877166945448874</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>17.56880781819027</v>
+        <v>10.85768812060385</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001877166945448874</v>
+        <v>1.14168738967838</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>10.85768812060385</v>
+        <v>0.02212980686130667</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.14168738967838</v>
+        <v>2.544425841745622</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.02212980686130667</v>
+        <v>0.9530068186406994</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.544425841745622</v>
+        <v>1.640945585985866</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9530068186406994</v>
+        <v>14</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.640945585985866</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.1718989233183356</v>
       </c>
     </row>
@@ -6290,72 +6188,66 @@
         <v>1.54672182702692e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.7441706813182862</v>
+        <v>6.383383544745791e-08</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0.1029325846880598</v>
+        <v>7.096402037723217e-07</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>6.383383544745791e-08</v>
+        <v>0.04525866958121334</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>7.096402037723217e-07</v>
+        <v>0.1508270849122345</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.04525866958121334</v>
+        <v>0.02479601651849586</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1508270849122345</v>
+        <v>1.745206799910738</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.02479601651849586</v>
+        <v>1.754434364949803</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.684444524483281</v>
+        <v>3.727692024007454</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.754434364949803</v>
+        <v>1.403488629949094e-16</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.727692024007454</v>
+        <v>356738329.5498189</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.403488629949094e-16</v>
+        <v>3.226077413451274e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>356738329.5498189</v>
+        <v>17.86111009250892</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>3.226077413451274e-07</v>
+        <v>0.0001898060482232161</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>17.86111009250892</v>
+        <v>11.38682247200248</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001898060482232161</v>
+        <v>1.106367910685332</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>11.38682247200248</v>
+        <v>0.02461020020745439</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.106367910685332</v>
+        <v>2.415931703858182</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.02461020020745439</v>
+        <v>0.9537060711056558</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.415931703858182</v>
+        <v>1.651343442174274</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9537060711056558</v>
+        <v>7</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.651343442174274</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.1762938555122594</v>
       </c>
     </row>
@@ -6370,72 +6262,66 @@
         <v>1.641203663014918e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.7879487577115729</v>
+        <v>6.60049667213232e-08</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0.07491342178176463</v>
+        <v>7.103642115102991e-07</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>6.60049667213232e-08</v>
+        <v>0.04561818007846633</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>7.103642115102991e-07</v>
+        <v>0.1421266509575123</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0.04561818007846633</v>
+        <v>0.02227992145551079</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.1421266509575123</v>
+        <v>1.738428918776618</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.02227992145551079</v>
+        <v>1.700091613954102</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.680915828205831</v>
+        <v>3.750474494324115</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.700091613954102</v>
+        <v>1.386489276234648e-16</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>3.750474494324115</v>
+        <v>367325242.695187</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1.386489276234648e-16</v>
+        <v>3.140182051071513e-07</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>367325242.695187</v>
+        <v>18.70759947971442</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>3.140182051071513e-07</v>
+        <v>0.0001814631458869661</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>18.70759947971442</v>
+        <v>10.17739815880546</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001814631458869661</v>
+        <v>1.190591193776498</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>10.17739815880546</v>
+        <v>0.0187958498126963</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.190591193776498</v>
+        <v>2.621788131307957</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.0187958498126963</v>
+        <v>0.9542516394369936</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.621788131307957</v>
+        <v>1.63289546448527</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9542516394369936</v>
+        <v>30</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.63289546448527</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.1736043284271837</v>
       </c>
     </row>
@@ -6450,72 +6336,66 @@
         <v>1.73659864968447e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.8103739542291266</v>
+        <v>6.845933333171582e-08</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>0.01119219229228419</v>
+        <v>7.111391072733511e-07</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>6.845933333171582e-08</v>
+        <v>0.04619661462336633</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>7.111391072733511e-07</v>
+        <v>0.13442317889328</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.04619661462336633</v>
+        <v>0.02020219464239028</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.13442317889328</v>
+        <v>1.735982454672908</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.02020219464239028</v>
+        <v>1.648694152866738</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.678949454907296</v>
+        <v>3.805528168160302</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.648694152866738</v>
+        <v>1.34666342740284e-16</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>3.805528168160302</v>
+        <v>379085830.9131649</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1.34666342740284e-16</v>
+        <v>3.037023908475198e-07</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>379085830.9131649</v>
+        <v>19.3523704992956</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>3.037023908475198e-07</v>
+        <v>0.0001768876494083282</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>19.3523704992956</v>
+        <v>8.959990097196616</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001768876494083282</v>
+        <v>1.344249286030831</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>8.959990097196616</v>
+        <v>0.01420079212458664</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.344249286030831</v>
+        <v>2.778861454386687</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01420079212458664</v>
+        <v>0.9533983908770205</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.778861454386687</v>
+        <v>1.636406905895574</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9533983908770205</v>
+        <v>30</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.636406905895574</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.1753676462803192</v>
       </c>
     </row>
@@ -6530,72 +6410,66 @@
         <v>1.835175755394602e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.8225559291701954</v>
+        <v>7.190128644326738e-08</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-0.05620727692703653</v>
+        <v>7.119727863877995e-07</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>7.190128644326738e-08</v>
+        <v>0.04731860093217897</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>7.119727863877995e-07</v>
+        <v>0.1281972679012834</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.04731860093217897</v>
+        <v>0.01867049323846602</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.1281972679012834</v>
+        <v>1.733125029474212</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.01867049323846602</v>
+        <v>1.617752443597841</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.678961705014271</v>
+        <v>3.843517598251569</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.617752443597841</v>
+        <v>1.321840958243187e-16</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>3.843517598251569</v>
+        <v>387931786.9980279</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1.321840958243187e-16</v>
+        <v>2.960202453830075e-07</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>387931786.9980279</v>
+        <v>19.89252619781507</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>2.960202453830075e-07</v>
+        <v>0.0001718782250384756</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>19.89252619781507</v>
+        <v>9.215584675847902</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001718782250384756</v>
+        <v>1.286615535718249</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>9.215584675847902</v>
+        <v>0.01459710217557917</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.286615535718249</v>
+        <v>2.774470895682893</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01459710217557917</v>
+        <v>0.9521577690936318</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.774470895682893</v>
+        <v>1.63910753073829</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9521577690936318</v>
+        <v>30</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.63910753073829</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.1895302712404077</v>
       </c>
     </row>
@@ -6610,72 +6484,66 @@
         <v>1.941997696719215e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.8373214697534734</v>
+        <v>7.690823859057623e-08</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-0.09182717353028114</v>
+        <v>7.128823130168142e-07</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>7.690823859057623e-08</v>
+        <v>0.04913898799038142</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>7.128823130168142e-07</v>
+        <v>0.1240186037583909</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.04913898799038142</v>
+        <v>0.01778957195527738</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1240186037583909</v>
+        <v>1.734921069953475</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.01778957195527738</v>
+        <v>1.634433330134305</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.681941766816617</v>
+        <v>4.073580880265731</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.634433330134305</v>
+        <v>1.387984118052841e-16</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.073580880265731</v>
+        <v>364585616.8018778</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1.387984118052841e-16</v>
+        <v>3.143171648379395e-07</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>364585616.8018778</v>
+        <v>18.44945576357297</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>3.143171648379395e-07</v>
+        <v>0.0001803276255905514</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>18.44945576357297</v>
+        <v>10.29015782314405</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001803276255905514</v>
+        <v>1.199589402498637</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>10.29015782314405</v>
+        <v>0.01909441404946697</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.199589402498637</v>
+        <v>2.608494900438953</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.01909441404946697</v>
+        <v>0.9532367709429409</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.608494900438953</v>
+        <v>1.644831828490428</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9532367709429409</v>
+        <v>30</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.644831828490428</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.1936891310350005</v>
       </c>
     </row>
@@ -6690,72 +6558,66 @@
         <v>2.064166818247286e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.8674464933808888</v>
+        <v>8.397530747583787e-08</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-0.05914512011103934</v>
+        <v>7.138881470292417e-07</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>8.397530747583787e-08</v>
+        <v>0.05147027277103663</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>7.138881470292417e-07</v>
+        <v>0.122736929062025</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.05147027277103663</v>
+        <v>0.0177031252026672</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.122736929062025</v>
+        <v>1.736324314660025</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.0177031252026672</v>
+        <v>1.702668307234655</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.688347508481973</v>
+        <v>4.229484270019706</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.702668307234655</v>
+        <v>1.673483604593807e-16</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.229484270019706</v>
+        <v>302999550.9268231</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>1.673483604593807e-16</v>
+        <v>3.785227070268204e-07</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>302999550.9268231</v>
+        <v>15.36404008354315</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>3.785227070268204e-07</v>
+        <v>0.0001909774418170856</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>15.36404008354315</v>
+        <v>10.33098470672158</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001909774418170856</v>
+        <v>1.197979229081417</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>10.33098470672158</v>
+        <v>0.02038287817917715</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.197979229081417</v>
+        <v>2.553611687969336</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.02038287817917715</v>
+        <v>0.9525895770772135</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.553611687969336</v>
+        <v>1.631274861113192</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9525895770772135</v>
+        <v>30</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.631274861113192</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.1772161157399134</v>
       </c>
     </row>
@@ -6770,72 +6632,66 @@
         <v>2.211336793039848e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.9265100068667336</v>
+        <v>9.322292564622511e-08</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>0.08591624823219401</v>
+        <v>7.150131349125361e-07</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>9.322292564622511e-08</v>
+        <v>0.05375878588356391</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>7.150131349125361e-07</v>
+        <v>0.123966974377586</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.05375878588356391</v>
+        <v>0.01824524421891492</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.123966974377586</v>
+        <v>1.70298003874425</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.01824524421891492</v>
+        <v>1.633580207579046</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.652251581645181</v>
+        <v>4.09093202041587</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.633580207579046</v>
+        <v>1.788758722058082e-16</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.09093202041587</v>
+        <v>271809210.0597423</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>1.788758722058082e-16</v>
+        <v>4.100140378596082e-07</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>271809210.0597423</v>
+        <v>13.215393562467</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>4.100140378596082e-07</v>
+        <v>0.0001904487389396061</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>13.215393562467</v>
+        <v>10.60885850194829</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001904487389396061</v>
+        <v>1.161955721920795</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>10.60885850194829</v>
+        <v>0.0214346015714777</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.161955721920795</v>
+        <v>2.544251668553887</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.0214346015714777</v>
+        <v>0.9492742782284722</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>2.544251668553887</v>
+        <v>1.632763789655598</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9492742782284722</v>
+        <v>32</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.632763789655598</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.1791364574920643</v>
       </c>
     </row>
@@ -6850,72 +6706,66 @@
         <v>2.38692380436517e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1.00901088172558</v>
+        <v>1.018607975187354e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>0.3143968027798714</v>
+        <v>7.162528814005237e-07</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1.018607975187354e-07</v>
+        <v>0.05373513334600414</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>7.162528814005237e-07</v>
+        <v>0.1212741161431817</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.05373513334600414</v>
+        <v>0.01758775239926301</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1212741161431817</v>
+        <v>1.671604442253514</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.01758775239926301</v>
+        <v>1.614335181056785</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.611484964914366</v>
+        <v>4.358959500371163</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.614335181056785</v>
+        <v>2.000546382294142e-16</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.358959500371163</v>
+        <v>246183702.842528</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>2.000546382294142e-16</v>
+        <v>4.491466119607629e-07</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>246183702.842528</v>
+        <v>12.12459453628816</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>4.491466119607629e-07</v>
+        <v>0.0001797029287047368</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>12.12459453628816</v>
+        <v>10.06244443335912</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001797029287047368</v>
+        <v>1.218081555872784</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>10.06244443335912</v>
+        <v>0.01819542253852661</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.218081555872784</v>
+        <v>2.712939163450017</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01819542253852661</v>
+        <v>0.9482682211292143</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.712939163450017</v>
+        <v>1.736662137746258</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9482682211292143</v>
+        <v>32</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.736662137746258</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.1883272969759265</v>
       </c>
     </row>
@@ -6930,72 +6780,66 @@
         <v>2.579230610103233e-08</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>1.08112230972541</v>
+        <v>1.077645311555064e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>0.4829792946832416</v>
+        <v>7.175608929280469e-07</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>1.077645311555064e-07</v>
+        <v>0.05154865554626265</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>7.175608929280469e-07</v>
+        <v>0.1142666431031068</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.05154865554626265</v>
+        <v>0.0157116095944212</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.1142666431031068</v>
+        <v>1.6757460265811</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.0157116095944212</v>
+        <v>1.590262247405692</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.611236507046757</v>
+        <v>4.344841812425569</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.590262247405692</v>
+        <v>2.120461547944292e-16</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>4.344841812425569</v>
+        <v>232125740.9180067</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>2.120461547944292e-16</v>
+        <v>4.805056733187723e-07</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>232125740.9180067</v>
+        <v>11.42554716373806</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>4.805056733187723e-07</v>
+        <v>0.0001852875677836772</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>11.42554716373806</v>
+        <v>8.813679449923439</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001852875677836772</v>
+        <v>1.561261730949323</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>8.813679449923439</v>
+        <v>0.01439331344482636</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.561261730949323</v>
+        <v>2.87846430324585</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.01439331344482636</v>
+        <v>0.949354549417702</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>2.87846430324585</v>
+        <v>1.733962572056846</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.949354549417702</v>
+        <v>32</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.733962572056846</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.1694294249575266</v>
       </c>
     </row>
@@ -7010,72 +6854,66 @@
         <v>2.77500763209121e-08</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>1.121697518772083</v>
+        <v>1.11969767986633e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>0.5197380671574274</v>
+        <v>7.189088334842268e-07</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>1.11969767986633e-07</v>
+        <v>0.04928059627703303</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>7.189088334842268e-07</v>
+        <v>0.1069934671413458</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0.04928059627703303</v>
+        <v>0.01387506398074847</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.1069934671413458</v>
+        <v>1.6648904500119</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.01387506398074847</v>
+        <v>1.699103757763698</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.600629106195271</v>
+        <v>4.410255939405054</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.699103757763698</v>
+        <v>2.058025506032556e-16</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>4.410255939405054</v>
+        <v>238373005.7643031</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>2.058025506032556e-16</v>
+        <v>4.653645785457739e-07</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>238373005.7643031</v>
+        <v>11.69404870629612</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>4.653645785457739e-07</v>
+        <v>0.0001625915404506248</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>11.69404870629612</v>
+        <v>9.023181778634513</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001625915404506248</v>
+        <v>1.351062008518862</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>9.023181778634513</v>
+        <v>0.01323784705213311</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.351062008518862</v>
+        <v>2.901600710484083</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.01323784705213311</v>
+        <v>0.9501592194201334</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>2.901600710484083</v>
+        <v>1.748995608236234</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9501592194201334</v>
+        <v>32</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.748995608236234</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.1714499854391916</v>
       </c>
     </row>
@@ -7090,72 +6928,66 @@
         <v>2.96947258054096e-08</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>1.133580376141775</v>
+        <v>1.157874533146025e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>0.4570048444645849</v>
+        <v>7.202978061344981e-07</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>1.157874533146025e-07</v>
+        <v>0.04755123766863714</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>7.202978061344981e-07</v>
+        <v>0.1005358096378252</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.04755123766863714</v>
+        <v>0.01236764386636245</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.1005358096378252</v>
+        <v>1.675091191644855</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.01236764386636245</v>
+        <v>1.660457823567196</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.615444622478453</v>
+        <v>4.414128970079874</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.660457823567196</v>
+        <v>2.054415598341355e-16</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>4.414128970079874</v>
+        <v>249851734.5219301</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>2.054415598341355e-16</v>
+        <v>4.49084816709805e-07</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>249851734.5219301</v>
+        <v>12.82487206024167</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>4.49084816709805e-07</v>
+        <v>0.000150783146152602</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>12.82487206024167</v>
+        <v>9.580500458037898</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.000150783146152602</v>
+        <v>1.19288590905319</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>9.580500458037898</v>
+        <v>0.0138397801981385</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.19288590905319</v>
+        <v>2.801838000683741</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.0138397801981385</v>
+        <v>0.9501188394547173</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>2.801838000683741</v>
+        <v>1.728556411036136</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9501188394547173</v>
+        <v>38</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.728556411036136</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.1805531416909508</v>
       </c>
     </row>
@@ -7170,72 +7002,66 @@
         <v>3.163248832866845e-08</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>1.126868478766929</v>
+        <v>1.200131272569021e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>0.3446832175041212</v>
+        <v>7.217356962494931e-07</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>1.200131272569021e-07</v>
+        <v>0.04632306018077136</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>7.217356962494931e-07</v>
+        <v>0.0950478964548738</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.04632306018077136</v>
+        <v>0.01117892259383404</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.0950478964548738</v>
+        <v>1.665901365746894</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.01117892259383404</v>
+        <v>1.606635546249991</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.60580451288452</v>
+        <v>4.44093869169614</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.606635546249991</v>
+        <v>2.029685665502755e-16</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>4.44093869169614</v>
+        <v>253095233.2877822</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>2.029685665502755e-16</v>
+        <v>4.425896245655948e-07</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>253095233.2877822</v>
+        <v>13.00159747525342</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>4.425896245655948e-07</v>
+        <v>0.0001499135117212613</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>13.00159747525342</v>
+        <v>9.706885832797109</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001499135117212613</v>
+        <v>1.173591954822273</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>9.706885832797109</v>
+        <v>0.01412539564584601</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.173591954822273</v>
+        <v>2.710898151417156</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.01412539564584601</v>
+        <v>0.94979996779866</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>2.710898151417156</v>
+        <v>1.724353752113688</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.94979996779866</v>
+        <v>41</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.724353752113688</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.1835500616232196</v>
       </c>
     </row>
@@ -7250,72 +7076,66 @@
         <v>3.357083338421355e-08</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>1.108204403024287</v>
+        <v>1.236749945690753e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>0.2103906979318912</v>
+        <v>7.23227626935168e-07</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>1.236749945690753e-07</v>
+        <v>0.04517596527466545</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>7.23227626935168e-07</v>
+        <v>0.08989143348204709</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0.04517596527466545</v>
+        <v>0.01012116968765588</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.08989143348204709</v>
+        <v>1.651246476628004</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.01012116968765588</v>
+        <v>1.646652681228176</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.585878735220928</v>
+        <v>4.30621519060016</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.646652681228176</v>
+        <v>2.158673114737473e-16</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>4.30621519060016</v>
+        <v>240100554.0498098</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>2.158673114737473e-16</v>
+        <v>4.652357476791076e-07</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>240100554.0498098</v>
+        <v>12.44437836309479</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>4.652357476791076e-07</v>
+        <v>0.0001464625637357435</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>12.44437836309479</v>
+        <v>8.87711782725647</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001464625637357435</v>
+        <v>1.214140818134852</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>8.87711782725647</v>
+        <v>0.01154172176643012</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.214140818134852</v>
+        <v>2.835092406603542</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.01154172176643012</v>
+        <v>0.9493322296060962</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>2.835092406603542</v>
+        <v>1.751873109324613</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9493322296060962</v>
+        <v>41</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.751873109324613</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.1814322207637998</v>
       </c>
     </row>
@@ -7330,72 +7150,66 @@
         <v>3.545248093280928e-08</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>1.075758721964545</v>
+        <v>1.255743594671128e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>0.04949061094126339</v>
+        <v>7.247637179804691e-07</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>1.255743594671128e-07</v>
+        <v>0.04380165565812236</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>7.247637179804691e-07</v>
+        <v>0.08488528394478938</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0.04380165565812236</v>
+        <v>0.009124257755363895</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.08488528394478938</v>
+        <v>1.66084626458453</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.009124257755363895</v>
+        <v>1.706486505544708</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.597197397758568</v>
+        <v>4.178481544559592</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.706486505544708</v>
+        <v>2.29266902367111e-16</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>4.178481544559592</v>
+        <v>226762161.4732225</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>2.29266902367111e-16</v>
+        <v>4.947108795328088e-07</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>226762161.4732225</v>
+        <v>11.7891512410103</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>4.947108795328088e-07</v>
+        <v>0.0001488077944493565</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>11.7891512410103</v>
+        <v>7.641214497815204</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001488077944493565</v>
+        <v>1.526017262659156</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>7.641214497815204</v>
+        <v>0.008688613162989601</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.526017262659156</v>
+        <v>2.995149153279889</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.008688613162989601</v>
+        <v>0.9474423147248701</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>2.995149153279889</v>
+        <v>1.756679417477333</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9474423147248701</v>
+        <v>36</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.756679417477333</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.1760475832647094</v>
       </c>
     </row>
@@ -7410,72 +7224,66 @@
         <v>3.722131757195886e-08</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>1.029742393817178</v>
+        <v>1.262209398578844e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-0.133836582888355</v>
+        <v>7.263293724586651e-07</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>1.262209398578844e-07</v>
+        <v>0.04236422361099759</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>7.263293724586651e-07</v>
+        <v>0.08050300177780692</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0.04236422361099759</v>
+        <v>0.008275640516643427</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.08050300177780692</v>
+        <v>1.671748561520887</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.008275640516643427</v>
+        <v>1.676216841255606</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.605407363379194</v>
+        <v>4.159615335684914</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.676216841255606</v>
+        <v>2.313513289210676e-16</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>4.159615335684914</v>
+        <v>226206050.8090741</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>2.313513289210676e-16</v>
+        <v>4.976596204160685e-07</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>226206050.8090741</v>
+        <v>11.83805719652506</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>4.976596204160685e-07</v>
+        <v>0.0001420581599398096</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>11.83805719652506</v>
+        <v>8.000427335462089</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001420581599398096</v>
+        <v>1.362015200969334</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>8.000427335462089</v>
+        <v>0.009092693565920592</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.362015200969334</v>
+        <v>2.987662031371554</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.009092693565920592</v>
+        <v>0.9470972202839445</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>2.987662031371554</v>
+        <v>1.759505520278157</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9470972202839445</v>
+        <v>36</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.759505520278157</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.1859503839606657</v>
       </c>
     </row>
@@ -7490,72 +7298,66 @@
         <v>3.885382567407876e-08</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.9734350140967772</v>
+        <v>1.262894210700129e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-0.3256948373115383</v>
+        <v>7.279168389501e-07</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1.262894210700129e-07</v>
+        <v>0.04110669912976584</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>7.279168389501e-07</v>
+        <v>0.07674298486561706</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0.04110669912976584</v>
+        <v>0.007579392283155166</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.07674298486561706</v>
+        <v>1.677517512874063</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.007579392283155166</v>
+        <v>1.753901840607998</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.61433563821245</v>
+        <v>4.179234884153642</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.753901840607998</v>
+        <v>2.291842555318605e-16</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>4.179234884153642</v>
+        <v>230854607.6840018</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>2.291842555318605e-16</v>
+        <v>4.880558062513384e-07</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>230854607.6840018</v>
+        <v>12.21411131122215</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>4.880558062513384e-07</v>
+        <v>0.0001415967596199205</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>12.21411131122215</v>
+        <v>9.114332554926417</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001415967596199205</v>
+        <v>1.256792824170683</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>9.114332554926417</v>
+        <v>0.0117625926199244</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.256792824170683</v>
+        <v>2.795845816164345</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.0117625926199244</v>
+        <v>0.9462202871257872</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>2.795845816164345</v>
+        <v>1.73244844287985</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9462202871257872</v>
+        <v>36</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.73244844287985</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.1991848944941044</v>
       </c>
     </row>
@@ -7570,72 +7372,66 @@
         <v>4.034620276453735e-08</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.910399507392737</v>
+        <v>1.262894210700129e-07</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-0.5138790379188523</v>
+        <v>7.295228923973823e-07</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>1.262894210700129e-07</v>
+        <v>0.03998521606142569</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>7.295228923973823e-07</v>
+        <v>0.07357570543594957</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>0.03998521606142569</v>
+        <v>0.007012324387175722</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.07357570543594957</v>
+        <v>1.672685239664826</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.007012324387175722</v>
+        <v>1.693283132529716</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.606004637984879</v>
+        <v>4.178771579828638</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>1.693283132529716</v>
+        <v>2.292350780958769e-16</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>4.178771579828638</v>
+        <v>222787115.364655</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>2.292350780958769e-16</v>
+        <v>5.01831430240027e-07</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>222787115.364655</v>
+        <v>11.37787650833344</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>5.01831430240027e-07</v>
+        <v>0.0001388764578270289</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>11.37787650833344</v>
+        <v>8.849144478494059</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.0001388764578270289</v>
+        <v>1.263033949368797</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>8.849144478494059</v>
+        <v>0.0108750485010083</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.263033949368797</v>
+        <v>2.816592727958807</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.0108750485010083</v>
+        <v>0.9464680894453419</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>2.816592727958807</v>
+        <v>1.744355217847132</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9464680894453419</v>
+        <v>13</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.744355217847132</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>0.1998462488386245</v>
       </c>
     </row>
@@ -7650,72 +7446,66 @@
         <v>4.169704214824801e-08</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.8431517077911871</v>
+        <v>1.262894210700129e-07</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-0.6914711237178572</v>
+        <v>7.311426452286796e-07</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>1.262894210700129e-07</v>
+        <v>0.03898856776282347</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>7.311426452286796e-07</v>
+        <v>0.0709161514404871</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>0.03898856776282347</v>
+        <v>0.006549265976581111</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.0709161514404871</v>
+        <v>1.678666130435224</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.006549265976581111</v>
+        <v>1.627392746273977</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.613099067336254</v>
+        <v>4.22338212156961</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1.627392746273977</v>
+        <v>2.244179472837837e-16</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>4.22338212156961</v>
+        <v>234204140.4891608</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>2.244179472837837e-16</v>
+        <v>4.794377691063653e-07</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>234204140.4891608</v>
+        <v>12.3096788592185</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>4.794377691063653e-07</v>
+        <v>0.0001372673301973554</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>12.3096788592185</v>
+        <v>8.381343167878603</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0001372673301973554</v>
+        <v>1.327215094466668</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>8.381343167878603</v>
+        <v>0.009642606242986605</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.327215094466668</v>
+        <v>2.896361570482181</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.009642606242986605</v>
+        <v>0.9477590249018065</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>2.896361570482181</v>
+        <v>1.75219099102452</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9477590249018065</v>
+        <v>13</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.75219099102452</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>0.2046635227303638</v>
       </c>
     </row>
@@ -7730,72 +7520,66 @@
         <v>4.290553210197887e-08</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.7732966976212516</v>
+        <v>1.262894210700129e-07</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-0.8547028076969774</v>
+        <v>7.327761187660539e-07</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>1.262894210700129e-07</v>
+        <v>0.03823761841409173</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>7.327761187660539e-07</v>
+        <v>0.06855577771481279</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>0.03823761841409173</v>
+        <v>0.006162010324149455</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.06855577771481279</v>
+        <v>1.676841002918138</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.006162010324149455</v>
+        <v>1.578305064324091</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.611738837969206</v>
+        <v>4.413076020674909</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1.578305064324091</v>
+        <v>2.055396072612975e-16</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>4.413076020674909</v>
+        <v>254008419.9123197</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>2.055396072612975e-16</v>
+        <v>4.441729003110375e-07</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>254008419.9123197</v>
+        <v>13.26147247438104</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>4.441729003110375e-07</v>
+        <v>0.0001391748533605353</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>13.26147247438104</v>
+        <v>8.242283408936578</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001391748533605353</v>
+        <v>1.471579196626273</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>8.242283408936578</v>
+        <v>0.009454876479536333</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.471579196626273</v>
+        <v>2.966847892639952</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.009454876479536333</v>
+        <v>0.9484731654364401</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>2.966847892639952</v>
+        <v>1.750066841177618</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9484731654364401</v>
+        <v>13</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.750066841177618</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>0.2205087006461562</v>
       </c>
     </row>
@@ -7810,72 +7594,66 @@
         <v>4.396908601341384e-08</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.7018926813760373</v>
+        <v>1.262894210700129e-07</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-1.001789652106222</v>
+        <v>7.344225730680864e-07</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>1.262894210700129e-07</v>
+        <v>0.03751887166477124</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>7.344225730680864e-07</v>
+        <v>0.0666609912799508</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>0.03751887166477124</v>
+        <v>0.005851298897738003</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.0666609912799508</v>
+        <v>1.677177355157586</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.005851298897738003</v>
+        <v>1.555559890250355</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.610145165146978</v>
+        <v>4.796877927737301</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1.555559890250355</v>
+        <v>1.739646496472016e-16</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>4.796877927737301</v>
+        <v>302113998.3712646</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>1.739646496472016e-16</v>
+        <v>3.736104215291381e-07</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>302113998.3712646</v>
+        <v>15.87825250598066</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>3.736104215291381e-07</v>
+        <v>0.0001513682597607997</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>15.87825250598066</v>
+        <v>9.312207813911291</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.0001513682597607997</v>
+        <v>1.548134274461592</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>9.312207813911291</v>
+        <v>0.01312623383041096</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.548134274461592</v>
+        <v>2.909990381686902</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.01312623383041096</v>
+        <v>0.9487769802884243</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>2.909990381686902</v>
+        <v>1.738564555762784</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9487769802884243</v>
+        <v>13</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.738564555762784</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>0.2628996862026349</v>
       </c>
     </row>
@@ -7890,72 +7668,66 @@
         <v>4.488251909180302e-08</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.6296742435831921</v>
+        <v>1.262894210700129e-07</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-1.132209749369232</v>
+        <v>7.360741396876881e-07</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>1.262894210700129e-07</v>
+        <v>0.03681054704447918</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>7.360741396876881e-07</v>
+        <v>0.0652379304478839</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>0.03681054704447918</v>
+        <v>0.005610973299445404</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.0652379304478839</v>
+        <v>1.686909789484337</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.005610973299445404</v>
+        <v>1.535160406542301</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.621046776469266</v>
+        <v>5.800378374150014</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1.535160406542301</v>
+        <v>1.140231343891144e-16</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>5.800378374150014</v>
+        <v>485410921.6610565</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>1.140231343891144e-16</v>
+        <v>2.351106417096545e-07</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>485410921.6610565</v>
+        <v>26.86655997874811</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>2.351106417096545e-07</v>
+        <v>0.0001475656829621025</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>26.86655997874811</v>
+        <v>9.490558513721297</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0001475656829621025</v>
+        <v>1.493807200631798</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>9.490558513721297</v>
+        <v>0.01329134449353317</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.493807200631798</v>
+        <v>2.832154616257559</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.01329134449353317</v>
+        <v>0.9498371977519907</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>2.832154616257559</v>
+        <v>1.738907975988789</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9498371977519907</v>
+        <v>30</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.738907975988789</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>0.3024245900679876</v>
       </c>
     </row>
@@ -7970,72 +7742,66 @@
         <v>4.565512972847941e-08</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>0.5574964629315695</v>
+        <v>1.262894210700129e-07</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>-1.245625376875636</v>
+        <v>7.377278784478756e-07</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>1.262894210700129e-07</v>
+        <v>0.03624265830394477</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>7.377278784478756e-07</v>
+        <v>0.06407223260961847</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>0.03624265830394477</v>
+        <v>0.005418816074426843</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0.06407223260961847</v>
+        <v>1.732159420959744</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>0.005418816074426843</v>
+        <v>1.864185284701005</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>1.67719022213441</v>
+        <v>4.68702608828104</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>1.864185284701005</v>
+        <v>8.805047083122432e-17</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>4.68702608828104</v>
+        <v>624254889.705457</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>8.805047083122432e-17</v>
+        <v>1.856728160692445e-07</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>624254889.705457</v>
+        <v>34.31275491281113</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>1.856728160692445e-07</v>
+        <v>0.0001207980676132188</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>34.31275491281113</v>
+        <v>7.921445962292564</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>0.0001207980676132188</v>
+        <v>1.576288728036382</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>7.921445962292564</v>
+        <v>0.007579994924999653</v>
       </c>
       <c r="T38" s="2" t="n">
-        <v>1.576288728036382</v>
+        <v>3.183486824815269</v>
       </c>
       <c r="U38" s="2" t="n">
-        <v>0.007579994924999653</v>
+        <v>0.9529912472245549</v>
       </c>
       <c r="V38" s="2" t="n">
-        <v>3.183486824815269</v>
+        <v>1.653841420910151</v>
       </c>
       <c r="W38" s="2" t="n">
-        <v>0.9529912472245549</v>
+        <v>27</v>
       </c>
       <c r="X38" s="2" t="n">
-        <v>1.653841420910151</v>
-      </c>
-      <c r="Y38" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z38" s="2" t="n">
         <v>0.3238552069494875</v>
       </c>
     </row>
@@ -8050,72 +7816,66 @@
         <v>4.630426150280311e-08</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>0.4860009811194587</v>
+        <v>1.262894210700129e-07</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>-1.342480571057303</v>
+        <v>7.393841791023828e-07</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>1.262894210700129e-07</v>
+        <v>0.03577754603785199</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>7.393841791023828e-07</v>
+        <v>0.06312979726648961</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>0.03577754603785199</v>
+        <v>0.005265483042194727</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0.06312979726648961</v>
+        <v>1.759433127766193</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>0.005265483042194727</v>
+        <v>1.659817709810835</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>1.714755389854115</v>
+        <v>5.133495386016819</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>1.659817709810835</v>
+        <v>7.340067812708795e-17</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>5.133495386016819</v>
+        <v>739597240.8226764</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>7.340067812708795e-17</v>
+        <v>1.581596786630114e-07</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>739597240.8226764</v>
+        <v>40.15047030990961</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>1.581596786630114e-07</v>
+        <v>0.0001228511537264409</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>40.15047030990961</v>
+        <v>8.242351606139138</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>0.0001228511537264409</v>
+        <v>1.590808954929746</v>
       </c>
       <c r="S39" s="2" t="n">
-        <v>8.242351606139138</v>
+        <v>0.008346060205879554</v>
       </c>
       <c r="T39" s="2" t="n">
-        <v>1.590808954929746</v>
+        <v>3.10695212226987</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>0.008346060205879554</v>
+        <v>0.9539321299349105</v>
       </c>
       <c r="V39" s="2" t="n">
-        <v>3.10695212226987</v>
+        <v>1.620273780794427</v>
       </c>
       <c r="W39" s="2" t="n">
-        <v>0.9539321299349105</v>
+        <v>36</v>
       </c>
       <c r="X39" s="2" t="n">
-        <v>1.620273780794427</v>
-      </c>
-      <c r="Y39" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z39" s="2" t="n">
         <v>0.3838187271260514</v>
       </c>
     </row>
@@ -8130,72 +7890,66 @@
         <v>4.68427128030022e-08</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>0.415429123402432</v>
+        <v>1.262894210700129e-07</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>-1.423839622192424</v>
+        <v>7.410393217201843e-07</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>1.262894210700129e-07</v>
+        <v>0.035244085431292</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>7.410393217201843e-07</v>
+        <v>0.06251959543565684</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>0.035244085431292</v>
+        <v>0.005150932085607024</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0.06251959543565684</v>
+        <v>1.782165553289782</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>0.005150932085607024</v>
+        <v>1.863596514446854</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>1.749837514151285</v>
+        <v>4.567984487339638</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>1.863596514446854</v>
+        <v>4.207999627147274e-17</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>4.567984487339638</v>
+        <v>1288595955.347093</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>4.207999627147274e-17</v>
+        <v>9.098018926172566e-08</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>1288595955.347093</v>
+        <v>69.87297268949702</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>9.098018926172566e-08</v>
+        <v>0.0001116415911223665</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>69.87297268949702</v>
+        <v>7.299385220840694</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>0.0001116415911223665</v>
+        <v>1.349859162617264</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>7.299385220840694</v>
+        <v>0.005948378363222641</v>
       </c>
       <c r="T40" s="2" t="n">
-        <v>1.349859162617264</v>
+        <v>3.32577734061843</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>0.005948378363222641</v>
+        <v>0.9554443766594706</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>3.32577734061843</v>
+        <v>1.565175655610092</v>
       </c>
       <c r="W40" s="2" t="n">
-        <v>0.9554443766594706</v>
+        <v>36</v>
       </c>
       <c r="X40" s="2" t="n">
-        <v>1.565175655610092</v>
-      </c>
-      <c r="Y40" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z40" s="2" t="n">
         <v>0.382973447858926</v>
       </c>
     </row>
@@ -8210,72 +7964,66 @@
         <v>4.727676939380594e-08</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>0.345763989573154</v>
+        <v>1.262894210700129e-07</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>-1.490841625286704</v>
+        <v>7.426821799661622e-07</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>1.262894210700129e-07</v>
+        <v>0.03452441613624826</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>7.426821799661622e-07</v>
+        <v>0.06230104925169531</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>0.03452441613624826</v>
+        <v>0.005073435489727953</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0.06230104925169531</v>
+        <v>1.793414382854362</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>0.005073435489727953</v>
+        <v>2.127909281645478</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>1.768790280212258</v>
+        <v>4.702148942858299</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>2.127909281645478</v>
+        <v>3.971295196369714e-17</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>4.702148942858299</v>
+        <v>1378860310.396761</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>3.971295196369714e-17</v>
+        <v>8.517400671105741e-08</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>1378860310.396761</v>
+        <v>75.50447849234719</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>8.517400671105741e-08</v>
+        <v>0.0001218259678910615</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>75.50447849234719</v>
+        <v>8.23232417819165</v>
       </c>
       <c r="R41" s="2" t="n">
-        <v>0.0001218259678910615</v>
+        <v>1.249888492695681</v>
       </c>
       <c r="S41" s="2" t="n">
-        <v>8.23232417819165</v>
+        <v>0.008256287329591067</v>
       </c>
       <c r="T41" s="2" t="n">
-        <v>1.249888492695681</v>
+        <v>3.280934782772287</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>0.008256287329591067</v>
+        <v>0.9550109048804523</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>3.280934782772287</v>
+        <v>1.560842602490984</v>
       </c>
       <c r="W41" s="2" t="n">
-        <v>0.9550109048804523</v>
+        <v>49</v>
       </c>
       <c r="X41" s="2" t="n">
-        <v>1.560842602490984</v>
-      </c>
-      <c r="Y41" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="Z41" s="2" t="n">
         <v>0.462934006576444</v>
       </c>
     </row>
@@ -8290,72 +8038,66 @@
         <v>4.761535664883622e-08</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>0.2769584249713246</v>
+        <v>1.262894210700129e-07</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>-1.544462203307775</v>
+        <v>7.443033844873063e-07</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>1.262894210700129e-07</v>
+        <v>0.03381672604193101</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>7.443033844873063e-07</v>
+        <v>0.06223073466240387</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>0.03381672604193101</v>
+        <v>0.005016345259445051</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0.06223073466240387</v>
+        <v>1.792545888903002</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>0.005016345259445051</v>
+        <v>1.87757548225525</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>1.770758141557079</v>
+        <v>4.55836606784735</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>1.87757548225525</v>
+        <v>4.225776614169569e-17</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>4.55836606784735</v>
+        <v>1257539852.602039</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>4.225776614169569e-17</v>
+        <v>9.301249524307399e-08</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>1257539852.602039</v>
+        <v>66.82670524408866</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>9.301249524307399e-08</v>
+        <v>0.0001272053213617612</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>66.82670524408866</v>
+        <v>9.299311468502951</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>0.0001272053213617612</v>
+        <v>1.167365215912866</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>9.299311468502951</v>
+        <v>0.01100035922629516</v>
       </c>
       <c r="T42" s="2" t="n">
-        <v>1.167365215912866</v>
+        <v>3.20413744176732</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>0.01100035922629516</v>
+        <v>0.9534385353839562</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>3.20413744176732</v>
+        <v>1.539108593636794</v>
       </c>
       <c r="W42" s="2" t="n">
-        <v>0.9534385353839562</v>
+        <v>42</v>
       </c>
       <c r="X42" s="2" t="n">
-        <v>1.539108593636794</v>
-      </c>
-      <c r="Y42" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z42" s="2" t="n">
         <v>0.6535584016340159</v>
       </c>
     </row>
@@ -8370,72 +8112,66 @@
         <v>4.787308716052116e-08</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>0.2089550072072066</v>
+        <v>1.262894210700129e-07</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>-1.585605935420736</v>
+        <v>7.459069776320464e-07</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>1.262894210700129e-07</v>
+        <v>0.03339573223974349</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>7.459069776320464e-07</v>
+        <v>0.06206829035078849</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>0.03339573223974349</v>
+        <v>0.004967878286550311</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0.06206829035078849</v>
+        <v>1.808552483334517</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>0.004967878286550311</v>
+        <v>2.102959115020426</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>1.792502560756112</v>
+        <v>4.350362872637355</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>2.102959115020426</v>
+        <v>4.28385475566054e-17</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>4.350362872637355</v>
+        <v>1222124038.809907</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>4.28385475566054e-17</v>
+        <v>9.62272088705311e-08</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>1222124038.809907</v>
+        <v>63.98310485078093</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>9.62272088705311e-08</v>
+        <v>0.0001055894310170882</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>63.98310485078093</v>
+        <v>7.994560392680137</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>0.0001055894310170882</v>
+        <v>1.29701651295338</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>7.994560392680137</v>
+        <v>0.006748536868744161</v>
       </c>
       <c r="T43" s="2" t="n">
-        <v>1.29701651295338</v>
+        <v>3.642647733198768</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>0.006748536868744161</v>
+        <v>0.9536150829292891</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>3.642647733198768</v>
+        <v>1.476118600797346</v>
       </c>
       <c r="W43" s="2" t="n">
-        <v>0.9536150829292891</v>
+        <v>39</v>
       </c>
       <c r="X43" s="2" t="n">
-        <v>1.476118600797346</v>
-      </c>
-      <c r="Y43" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="Z43" s="2" t="n">
         <v>0.9419137088996004</v>
       </c>
     </row>
@@ -8812,7 +8548,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.715819996110022</v>
+        <v>1.631967946337336</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.601220836644351</v>
@@ -8901,7 +8637,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.715673762787608</v>
+        <v>1.63225713352412</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.32330068762559</v>
@@ -8990,7 +8726,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.719652872797887</v>
+        <v>1.639628176265874</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.735693204127648</v>
@@ -9079,7 +8815,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.718455694276271</v>
+        <v>1.634306738818339</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.394173948855116</v>
@@ -9168,7 +8904,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.723309176673776</v>
+        <v>1.641474420698899</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.673431069037499</v>
@@ -9257,7 +8993,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.61383262297897</v>
+        <v>1.559743309351576</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.881824085054194</v>
@@ -9346,7 +9082,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.579313236767697</v>
+        <v>1.543522954406717</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.908085383781952</v>
@@ -9435,7 +9171,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.576158454075646</v>
+        <v>1.548618457516346</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.872539426257399</v>
@@ -9524,7 +9260,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.571482482920912</v>
+        <v>1.544407797287732</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.821749051189112</v>
@@ -9613,7 +9349,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.561817952044699</v>
+        <v>1.544144457238669</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.867920504880945</v>
@@ -9702,7 +9438,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.544526474027687</v>
+        <v>1.529074726848711</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.866311602901537</v>
@@ -9791,7 +9527,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.536999790167604</v>
+        <v>1.516905164973513</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.884691115242344</v>
@@ -9880,7 +9616,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.532311540003147</v>
+        <v>1.515120521312049</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.888126136113525</v>
@@ -9969,7 +9705,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.514906125454991</v>
+        <v>1.502221956834468</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.892378832955042</v>
@@ -10058,7 +9794,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.509865327371457</v>
+        <v>1.493934734889219</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.90661574262159</v>
@@ -10147,7 +9883,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.494072171959763</v>
+        <v>1.481888635243671</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.886863596143999</v>
@@ -10236,7 +9972,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.490123655633666</v>
+        <v>1.474004290412366</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.907258260612176</v>
@@ -10325,7 +10061,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.49233520160461</v>
+        <v>1.479005931695331</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.907321023140135</v>
@@ -10414,7 +10150,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.488029304024283</v>
+        <v>1.47814477570435</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.921028407834451</v>
@@ -10503,7 +10239,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.487015803377907</v>
+        <v>1.479770299034678</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.886093459423301</v>
@@ -10592,7 +10328,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.576923559085583</v>
+        <v>1.552924704381387</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.456417542506279</v>
@@ -10681,7 +10417,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.58524990819913</v>
+        <v>1.556255579767875</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.73049153595311</v>
@@ -10770,7 +10506,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.584710071810395</v>
+        <v>1.556367117675026</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.85366842444107</v>
@@ -10859,7 +10595,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.588967038896903</v>
+        <v>1.555930248165565</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.699835982400102</v>
@@ -10948,7 +10684,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.589408335937361</v>
+        <v>1.557504971618097</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.809144640304049</v>
@@ -11037,7 +10773,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.604206914333912</v>
+        <v>1.57641026618803</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.457185359715917</v>
@@ -11126,7 +10862,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.613945441447765</v>
+        <v>1.591910733879197</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.706650817607733</v>
@@ -11215,7 +10951,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.621366892898773</v>
+        <v>1.593403946969725</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.48890733697451</v>
@@ -11304,7 +11040,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.640185923250866</v>
+        <v>1.600963772452276</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.576942557185929</v>
@@ -11393,7 +11129,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.668865261230444</v>
+        <v>1.621320758435199</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.39480298156367</v>
@@ -11482,7 +11218,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.675450663172091</v>
+        <v>1.629398904620507</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.295905002106714</v>
@@ -11571,7 +11307,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.678466073892564</v>
+        <v>1.638146234732053</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.402551508303727</v>
@@ -11660,7 +11396,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.66982781848028</v>
+        <v>1.628884785111266</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.21889447835094</v>
@@ -11749,7 +11485,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.663766305505242</v>
+        <v>1.625811220438145</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.407410008439859</v>
@@ -11838,7 +11574,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.653301365534332</v>
+        <v>1.616482796865963</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.413959213207488</v>
@@ -11927,7 +11663,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.660476856930949</v>
+        <v>1.619492487822547</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.308180655912828</v>
@@ -12016,7 +11752,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.668800751399567</v>
+        <v>1.628519852673717</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.031982114378887</v>
@@ -12105,7 +11841,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.665473597817524</v>
+        <v>1.631950165303687</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.337601532352406</v>
@@ -12194,7 +11930,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.668449779764799</v>
+        <v>1.62921681880778</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.059095974870033</v>
@@ -12283,7 +12019,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.665776841269101</v>
+        <v>1.62236078226061</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.93335565306458</v>
@@ -12372,7 +12108,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.665958216790544</v>
+        <v>1.624880764447552</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.352271586055801</v>
@@ -12461,7 +12197,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.654939909459122</v>
+        <v>1.617505435742725</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.192274119659386</v>
@@ -12550,7 +12286,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.659576909532929</v>
+        <v>1.620709303488162</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.277085811777833</v>
@@ -12639,7 +12375,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.665323227855622</v>
+        <v>1.623909995046598</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.411910435176858</v>
@@ -12728,7 +12464,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.667940359203038</v>
+        <v>1.627267137271835</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.043516538037699</v>
@@ -12817,7 +12553,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.66795238254322</v>
+        <v>1.632276798414183</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.050247953195878</v>
@@ -12906,7 +12642,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.671253833746587</v>
+        <v>1.633152876574614</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.390182982754889</v>
@@ -12995,7 +12731,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.663719079051218</v>
+        <v>1.62250953829148</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.467912829228306</v>
@@ -13084,7 +12820,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.643842219873693</v>
+        <v>1.596055955299986</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.834488341697156</v>
@@ -13173,7 +12909,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.555717906275611</v>
+        <v>1.525783419354873</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.879830629258711</v>
@@ -13262,7 +12998,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.476937836135015</v>
+        <v>1.464811300143459</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.891546812238047</v>
@@ -13351,7 +13087,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.476973726705028</v>
+        <v>1.464242787753943</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.903643504950285</v>
@@ -13440,7 +13176,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.469200550143665</v>
+        <v>1.443323666752667</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.94563299697133</v>
@@ -13529,7 +13265,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.445639152321499</v>
+        <v>1.428433819542076</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.990303606691956</v>
@@ -13618,7 +13354,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.447709874167663</v>
+        <v>1.428094992136311</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.992910281913972</v>
@@ -13707,7 +13443,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.450983146934807</v>
+        <v>1.430582195129771</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.977023426885509</v>
@@ -13796,7 +13532,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.397053296162165</v>
+        <v>1.38091122481562</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.973228799554712</v>
@@ -13885,7 +13621,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.352079806010618</v>
+        <v>1.334946777018075</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.997919826358581</v>
@@ -13974,7 +13710,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.348522939005795</v>
+        <v>1.335192836365791</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.99252138632164</v>
@@ -14063,7 +13799,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.348966393620894</v>
+        <v>1.332488150632102</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.984300895470386</v>
@@ -14152,7 +13888,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.344979431813595</v>
+        <v>1.327342640477535</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.00685178003299</v>
@@ -14241,7 +13977,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.343896021044335</v>
+        <v>1.32718058147657</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.960710547909661</v>
@@ -14330,7 +14066,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.346250054338197</v>
+        <v>1.33170022386456</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.99584843762599</v>
@@ -14419,7 +14155,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.366821135503211</v>
+        <v>1.346463994690068</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.797117939534782</v>
@@ -14508,7 +14244,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.381294668364635</v>
+        <v>1.364565936953368</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.877175163952854</v>
@@ -14597,7 +14333,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.417944405966564</v>
+        <v>1.398944943967213</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.883278100901818</v>
@@ -14686,7 +14422,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.418963241920558</v>
+        <v>1.397306468738159</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.867276838243887</v>
@@ -14775,7 +14511,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.427325240452281</v>
+        <v>1.421096870108577</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.746139505522394</v>
@@ -14864,7 +14600,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.434817895923566</v>
+        <v>1.427571798383352</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.896731057590827</v>
@@ -14953,7 +14689,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.373440641815068</v>
+        <v>1.361496221357613</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.757316684118742</v>
@@ -15042,7 +14778,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.357827336998984</v>
+        <v>1.352287698777412</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.774952695339303</v>
@@ -15131,7 +14867,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.421382322750001</v>
+        <v>1.409639504227804</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.76421411260553</v>
@@ -15220,7 +14956,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.422939790555571</v>
+        <v>1.411577175952746</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.727623641548431</v>
@@ -15309,7 +15045,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.41757812849799</v>
+        <v>1.400567706517907</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.768130368465658</v>
@@ -15398,7 +15134,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.416763107118246</v>
+        <v>1.400058414885062</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.759320618774474</v>
@@ -15487,7 +15223,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.420197750543848</v>
+        <v>1.40136662196644</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.767975706571875</v>
@@ -15576,7 +15312,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.412172671819083</v>
+        <v>1.389381981206023</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>1.769322660562681</v>
@@ -15665,7 +15401,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.408076398055061</v>
+        <v>1.383267520662396</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>1.788608065540409</v>
@@ -15754,7 +15490,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.399680479474396</v>
+        <v>1.377201945388118</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>1.7992063882534</v>
@@ -15843,7 +15579,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.345675900412274</v>
+        <v>1.288228394694042</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>1.472183029097661</v>
@@ -15932,7 +15668,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.339955657714539</v>
+        <v>1.280859640558156</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>1.475438290984932</v>
@@ -16021,7 +15757,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.340617539996242</v>
+        <v>1.281770177381463</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>1.474297653774939</v>
@@ -16110,7 +15846,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.341460497625782</v>
+        <v>1.282078934086157</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>1.472196832560652</v>
@@ -16199,7 +15935,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.341610544525766</v>
+        <v>1.281247587733501</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>1.474559717845766</v>
@@ -16288,7 +16024,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.382600508335133</v>
+        <v>1.316395494854845</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>1.462449913768905</v>
@@ -16377,7 +16113,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.391704052161292</v>
+        <v>1.322166053752514</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>1.444995991784429</v>
@@ -16466,7 +16202,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.398146716812523</v>
+        <v>1.325771486348823</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>1.439405966819637</v>
@@ -16752,7 +16488,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.684748644277837</v>
+        <v>1.680953481409958</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.137178167122426</v>
@@ -16841,7 +16577,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.681195321390668</v>
+        <v>1.68035420895243</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.073709757260795</v>
@@ -16930,7 +16666,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.685681071915569</v>
+        <v>1.684255650886552</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.949786853142711</v>
@@ -17019,7 +16755,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.701448745333242</v>
+        <v>1.69830933004926</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.086612200461656</v>
@@ -17108,7 +16844,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.725836374292295</v>
+        <v>1.718636258888718</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.065007813543304</v>
@@ -17197,7 +16933,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.673597892891535</v>
+        <v>1.672279831068846</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.260719687280285</v>
@@ -17286,7 +17022,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.681728759752373</v>
+        <v>1.691743408873165</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.250507265195921</v>
@@ -17375,7 +17111,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.686162269944387</v>
+        <v>1.706410206358829</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.199485981214064</v>
@@ -17464,7 +17200,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.683791903559272</v>
+        <v>1.702528085685681</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.078564263746178</v>
@@ -17553,7 +17289,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.675479458532611</v>
+        <v>1.692521257064443</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.15503435996262</v>
@@ -17642,7 +17378,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.654977530403181</v>
+        <v>1.669513529183704</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.137814320569027</v>
@@ -17731,7 +17467,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.645069083698902</v>
+        <v>1.656498633569364</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.127601480900832</v>
@@ -17820,7 +17556,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.658426620347685</v>
+        <v>1.668656918320882</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.167376468504273</v>
@@ -17909,7 +17645,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.646264748940715</v>
+        <v>1.655993993674221</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.140553199319896</v>
@@ -17998,7 +17734,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.609443882084816</v>
+        <v>1.615380443235</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.181391049038075</v>
@@ -18087,7 +17823,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.580616959811625</v>
+        <v>1.599006139296453</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.109579954103546</v>
@@ -18176,7 +17912,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.57276694770405</v>
+        <v>1.586321804225308</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.148816495329203</v>
@@ -18265,7 +18001,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.570566368515725</v>
+        <v>1.583918531506139</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.157010018250308</v>
@@ -18354,7 +18090,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.560651220155551</v>
+        <v>1.5740752430134</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.171735430494586</v>
@@ -18443,7 +18179,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.554646785710354</v>
+        <v>1.569846960945664</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.120713337728652</v>
@@ -18532,7 +18268,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.607475442563442</v>
+        <v>1.615285662171853</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.489504606613202</v>
@@ -18621,7 +18357,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.605530869103344</v>
+        <v>1.608093483885128</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.487433926520254</v>
@@ -18710,7 +18446,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.602599595463879</v>
+        <v>1.607400563506943</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.589336575270836</v>
@@ -18799,7 +18535,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.591350639169542</v>
+        <v>1.598234555325637</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.523766037963418</v>
@@ -18888,7 +18624,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.599808520760819</v>
+        <v>1.606529376274817</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.580538640989903</v>
@@ -18977,7 +18713,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.613532375641323</v>
+        <v>1.625455185337165</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.409208174647098</v>
@@ -19066,7 +18802,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.621139761409644</v>
+        <v>1.637631245907976</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.577413214790823</v>
@@ -19155,7 +18891,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.625957572040214</v>
+        <v>1.642040008348531</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.477464896936831</v>
@@ -19244,7 +18980,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.639925154157994</v>
+        <v>1.653416231409666</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.454457426145265</v>
@@ -19333,7 +19069,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.707235517416525</v>
+        <v>1.70463668211903</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.267328210444566</v>
@@ -19422,7 +19158,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.729325675471169</v>
+        <v>1.725533855586272</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.201017931707547</v>
@@ -19511,7 +19247,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.715560233558712</v>
+        <v>1.7225481061768</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.097359590372117</v>
@@ -19600,7 +19336,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.710362416997246</v>
+        <v>1.719439000866267</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.99777421443194</v>
@@ -19689,7 +19425,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.71215894523247</v>
+        <v>1.720895927939986</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.096839181931464</v>
@@ -19778,7 +19514,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.711415393016039</v>
+        <v>1.720562129648534</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.101914943629888</v>
@@ -19867,7 +19603,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.731514361719812</v>
+        <v>1.733908095467066</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.979382026050065</v>
@@ -19956,7 +19692,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.749132870681644</v>
+        <v>1.750618881251499</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.051477530942151</v>
@@ -20045,7 +19781,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.753158237564673</v>
+        <v>1.759134951409472</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.813824384957758</v>
@@ -20134,7 +19870,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.767639008341665</v>
+        <v>1.762756968978528</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.002500376929333</v>
@@ -20223,7 +19959,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.770160563265673</v>
+        <v>1.765197124375252</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.127256727717072</v>
@@ -20312,7 +20048,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.774450708689798</v>
+        <v>1.767866125230241</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.018610923451463</v>
@@ -20401,7 +20137,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.774644256823274</v>
+        <v>1.768295097715634</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.850772767845621</v>
@@ -20490,7 +20226,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.774649550873824</v>
+        <v>1.766148264831541</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.741810397334605</v>
@@ -20579,7 +20315,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.765855418727379</v>
+        <v>1.756632098173039</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.845191783927652</v>
@@ -20668,7 +20404,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.764883353720159</v>
+        <v>1.760580324670331</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.065790389729515</v>
@@ -20757,7 +20493,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.7617777380507</v>
+        <v>1.759691275658055</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.163255112401985</v>
@@ -20846,7 +20582,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.793491066306676</v>
+        <v>1.786083203879052</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.570761298234153</v>
@@ -20935,7 +20671,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.793135905404058</v>
+        <v>1.779246930762884</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.588255374033559</v>
@@ -21024,7 +20760,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.772828379680001</v>
+        <v>1.757062768672198</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.149205160067782</v>
@@ -21113,7 +20849,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.711205928671407</v>
+        <v>1.709904311366193</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.21602699717906</v>
@@ -21202,7 +20938,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.648870591555561</v>
+        <v>1.664989384069606</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.223418805695057</v>
@@ -21291,7 +21027,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.647840188497464</v>
+        <v>1.661821102806078</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.237877931004213</v>
@@ -21380,7 +21116,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.624723433554926</v>
+        <v>1.630096344090156</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.195527848708374</v>
@@ -21469,7 +21205,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.610141724050618</v>
+        <v>1.625808384127531</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.351035575023443</v>
@@ -21558,7 +21294,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.611885431919627</v>
+        <v>1.625838882660426</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.316658914251016</v>
@@ -21647,7 +21383,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.611771311873004</v>
+        <v>1.623908155355187</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.277249844334905</v>
@@ -21736,7 +21472,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.555831745982951</v>
+        <v>1.571546825735639</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.318770224989704</v>
@@ -21825,7 +21561,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.540131211574907</v>
+        <v>1.554090148226848</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.324636474527547</v>
@@ -21914,7 +21650,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.532050536031563</v>
+        <v>1.547920518115511</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.297526785464089</v>
@@ -22003,7 +21739,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.534654893988483</v>
+        <v>1.549113042182675</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.327163597583322</v>
@@ -22092,7 +21828,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.523019420369134</v>
+        <v>1.537586032545504</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.300290333737917</v>
@@ -22181,7 +21917,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.515337436544201</v>
+        <v>1.530127827749358</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.271042438386282</v>
@@ -22270,7 +22006,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.519233136136199</v>
+        <v>1.537264035102125</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.305955075275564</v>
@@ -22359,7 +22095,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.532527731378256</v>
+        <v>1.547701466749341</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.032506562219179</v>
@@ -22448,7 +22184,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.554168157698862</v>
+        <v>1.571378495025518</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.158843416753572</v>
@@ -22537,7 +22273,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.584045091711479</v>
+        <v>1.59856274628125</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.217457565396181</v>
@@ -22626,7 +22362,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.586334596598454</v>
+        <v>1.600281790517898</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.190960433614487</v>
@@ -22715,7 +22451,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.608187322821965</v>
+        <v>1.630175055033058</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.018579479749451</v>
@@ -22804,7 +22540,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.612075311369293</v>
+        <v>1.629239413837358</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.201615640342792</v>
@@ -22893,7 +22629,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.533264332022598</v>
+        <v>1.547769745875694</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.968528815442418</v>
@@ -22982,7 +22718,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.519588890526023</v>
+        <v>1.539379858263181</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.991600164181814</v>
@@ -23071,7 +22807,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.559556428597716</v>
+        <v>1.575496576193524</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.998246974331924</v>
@@ -23160,7 +22896,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.540381317422361</v>
+        <v>1.556975996930694</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.946089965416886</v>
@@ -23249,7 +22985,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.549474674520781</v>
+        <v>1.563354377530065</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.007103263235953</v>
@@ -23338,7 +23074,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.553040402967692</v>
+        <v>1.563330052406976</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.995706121770197</v>
@@ -23427,7 +23163,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.555711986225657</v>
+        <v>1.560762476583376</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.016066999907525</v>
@@ -23516,7 +23252,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.542153268075723</v>
+        <v>1.545556653528474</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>1.969114100108783</v>
@@ -23605,7 +23341,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.523516908825896</v>
+        <v>1.526110562813138</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>1.979535882827952</v>
@@ -23694,7 +23430,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.513704316579126</v>
+        <v>1.519039569316265</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>1.995605801077793</v>
@@ -23783,7 +23519,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.404922120632887</v>
+        <v>1.369773568463057</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>1.597611923601747</v>
@@ -23872,7 +23608,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.398915568977364</v>
+        <v>1.364024353405242</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>1.602624813358162</v>
@@ -23961,7 +23697,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.392255655465696</v>
+        <v>1.355549970521236</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>1.594718271040555</v>
@@ -24050,7 +23786,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.39352249277557</v>
+        <v>1.358478311086018</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>1.596917463932377</v>
@@ -24139,7 +23875,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.395933715455778</v>
+        <v>1.36083077542355</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>1.599822626374227</v>
@@ -24228,7 +23964,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.432468379672184</v>
+        <v>1.393758330706613</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>1.597503110949198</v>
@@ -24317,7 +24053,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.438309628715517</v>
+        <v>1.397055992132256</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>1.576158083690885</v>
@@ -24406,7 +24142,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.440885421178482</v>
+        <v>1.39717866497818</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>1.568081165229759</v>
@@ -24692,7 +24428,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.717769974829418</v>
+        <v>1.711721261924025</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.3885031504399</v>
@@ -24781,7 +24517,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.717601821248566</v>
+        <v>1.711686366467079</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.334892478890854</v>
@@ -24870,7 +24606,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.717367756773385</v>
+        <v>1.713271626828748</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.97973462257783</v>
@@ -24959,7 +24695,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.749127438443174</v>
+        <v>1.743186968704385</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.115289214696176</v>
@@ -25048,7 +24784,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.765735217918841</v>
+        <v>1.761238758562259</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.154685237523126</v>
@@ -25137,7 +24873,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.725425252437474</v>
+        <v>1.726959190030727</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.430426290432177</v>
@@ -25226,7 +24962,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.736270827704794</v>
+        <v>1.749720472092224</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.389032354941544</v>
@@ -25315,7 +25051,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.75172532160962</v>
+        <v>1.763974193100924</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.410404485449794</v>
@@ -25404,7 +25140,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.749019597904667</v>
+        <v>1.766853841250389</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.398725822198218</v>
@@ -25493,7 +25229,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.748190317397078</v>
+        <v>1.757925954099041</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.387283310648229</v>
@@ -25582,7 +25318,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.746744944873701</v>
+        <v>1.759816872972218</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.430472838769331</v>
@@ -25671,7 +25407,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.751187027216899</v>
+        <v>1.76291078736254</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.407377189434631</v>
@@ -25760,7 +25496,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.764964294668714</v>
+        <v>1.780048220930575</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.501357449464571</v>
@@ -25849,7 +25585,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.757521459455988</v>
+        <v>1.768490355083475</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.400412725882165</v>
@@ -25938,7 +25674,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.731191637033527</v>
+        <v>1.740292654874962</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.491800402504733</v>
@@ -26027,7 +25763,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.714522180570647</v>
+        <v>1.731879504836177</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.376863185100075</v>
@@ -26116,7 +25852,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.718845468532316</v>
+        <v>1.735129954449042</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.447283491094026</v>
@@ -26205,7 +25941,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.714607775233423</v>
+        <v>1.729149610670506</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.427780362399716</v>
@@ -26294,7 +26030,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.707740375607968</v>
+        <v>1.723570136375236</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.408203851069566</v>
@@ -26383,7 +26119,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.69847466097149</v>
+        <v>1.712782569719062</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.366771054475767</v>
@@ -26472,7 +26208,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.754091267754971</v>
+        <v>1.757054347529898</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.950529573336837</v>
@@ -26561,7 +26297,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.747644984778625</v>
+        <v>1.752591817345092</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.176052459803763</v>
@@ -26650,7 +26386,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.743244550390041</v>
+        <v>1.749533049287289</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.167789065553972</v>
@@ -26739,7 +26475,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.74518032225637</v>
+        <v>1.753353412391932</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.862777538582929</v>
@@ -26828,7 +26564,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.752042241298378</v>
+        <v>1.769515397910015</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.174679787523345</v>
@@ -26917,7 +26653,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.754743518018887</v>
+        <v>1.770352013253886</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.006973467365979</v>
@@ -27006,7 +26742,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.761685492264052</v>
+        <v>1.777396265352233</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.093129438245504</v>
@@ -27095,7 +26831,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.75454151382038</v>
+        <v>1.765425395709108</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.107113603647893</v>
@@ -27184,7 +26920,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.761824772263727</v>
+        <v>1.778120210026717</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.100021208815585</v>
@@ -27273,7 +27009,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.804402148693007</v>
+        <v>1.814463984579819</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.713801877861707</v>
@@ -27362,7 +27098,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.815918555741022</v>
+        <v>1.828433769809151</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.185176776122565</v>
@@ -27451,7 +27187,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.797646132822134</v>
+        <v>1.812360252663733</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.13299522778187</v>
@@ -27540,7 +27276,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.802340610651122</v>
+        <v>1.814205170902025</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.388459772325234</v>
@@ -27629,7 +27365,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.808479660207088</v>
+        <v>1.813484182693795</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.279496630006508</v>
@@ -27718,7 +27454,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.811538297844946</v>
+        <v>1.815744810789344</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.063524784703467</v>
@@ -27807,7 +27543,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.825132120679193</v>
+        <v>1.821553635418411</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.39230511459842</v>
@@ -27896,7 +27632,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.827794209094539</v>
+        <v>1.825488766621746</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.532805740614573</v>
@@ -27985,7 +27721,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.829326850790218</v>
+        <v>1.824345994806895</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.17855419470285</v>
@@ -28074,7 +27810,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.81821467592365</v>
+        <v>1.807049447972286</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.58320911265201</v>
@@ -28163,7 +27899,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.820333920191988</v>
+        <v>1.807748195495198</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.501668648942597</v>
@@ -28252,7 +27988,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.812962368914698</v>
+        <v>1.805504599961952</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.33539227556439</v>
@@ -28341,7 +28077,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.810882066746694</v>
+        <v>1.807295657213934</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.712809027608909</v>
@@ -28430,7 +28166,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.819185012471511</v>
+        <v>1.813242638138218</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.691128327682429</v>
@@ -28519,7 +28255,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.798510806548221</v>
+        <v>1.791958343413967</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.682323443587031</v>
@@ -28608,7 +28344,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.801824756997292</v>
+        <v>1.794471893319028</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.513889684441375</v>
@@ -28697,7 +28433,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.80498120759889</v>
+        <v>1.796878844757935</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.650133407608585</v>
@@ -28786,7 +28522,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.830391190892679</v>
+        <v>1.826288941934175</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.511455648344774</v>
@@ -28875,7 +28611,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.826178142023916</v>
+        <v>1.820342895111438</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.75158515665371</v>
@@ -28964,7 +28700,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.803243627634492</v>
+        <v>1.794406960290485</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.397912199585198</v>
@@ -29053,7 +28789,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.759786811852081</v>
+        <v>1.765761154553366</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.46356042383147</v>
@@ -29142,7 +28878,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.706018315210444</v>
+        <v>1.724668540197624</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.414994222684466</v>
@@ -29231,7 +28967,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.707679534527907</v>
+        <v>1.722274846705558</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.502187859036516</v>
@@ -29320,7 +29056,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.684538456408403</v>
+        <v>1.692035259988565</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.406893184536584</v>
@@ -29409,7 +29145,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.680626080544568</v>
+        <v>1.693247094349301</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.502340816393764</v>
@@ -29498,7 +29234,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.675652109267237</v>
+        <v>1.684905255709939</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.479963756214115</v>
@@ -29587,7 +29323,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.675935967873996</v>
+        <v>1.680819594435877</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.504549613180507</v>
@@ -29676,7 +29412,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.627498899695525</v>
+        <v>1.637631151707494</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.268363601783708</v>
@@ -29765,7 +29501,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.540527722370421</v>
+        <v>1.564121807228514</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.157523974066724</v>
@@ -29854,7 +29590,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.541643586125088</v>
+        <v>1.566249173496175</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.176133889939548</v>
@@ -29943,7 +29679,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.541187046439286</v>
+        <v>1.56598355687243</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.201221755725791</v>
@@ -30032,7 +29768,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.532000738463496</v>
+        <v>1.554194909111429</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.202923915466892</v>
@@ -30121,7 +29857,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.521731246121004</v>
+        <v>1.538902097666091</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.184723806640337</v>
@@ -30210,7 +29946,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.525681389587454</v>
+        <v>1.544967875506642</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.174216649221953</v>
@@ -30299,7 +30035,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.536634213155865</v>
+        <v>1.556528979430688</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.104799239678949</v>
@@ -30388,7 +30124,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.536241005479432</v>
+        <v>1.555124236157174</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.236158771464985</v>
@@ -30477,7 +30213,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.561207488438991</v>
+        <v>1.582190440904553</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.217107969064145</v>
@@ -30566,7 +30302,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.562290440071806</v>
+        <v>1.582677655980906</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.23528264047176</v>
@@ -30655,7 +30391,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.582431484994488</v>
+        <v>1.614147549551588</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.154322356519558</v>
@@ -30744,7 +30480,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.585957582475447</v>
+        <v>1.619411769928715</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.177254473028202</v>
@@ -30833,7 +30569,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.538360120890796</v>
+        <v>1.568814070003822</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.160773313762844</v>
@@ -30922,7 +30658,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.533092436871927</v>
+        <v>1.569104471213587</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.212967213224814</v>
@@ -31011,7 +30747,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.58044520234584</v>
+        <v>1.610623112822215</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.094487652262723</v>
@@ -31100,7 +30836,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.623178279790342</v>
+        <v>1.647434563990022</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.080450498910855</v>
@@ -31189,7 +30925,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.623946791549185</v>
+        <v>1.640703139753066</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.13461590549496</v>
@@ -31278,7 +31014,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.629658231509949</v>
+        <v>1.650319100007101</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.086396211752653</v>
@@ -31367,7 +31103,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.632198252101506</v>
+        <v>1.649068766448361</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.141764448788758</v>
@@ -31456,7 +31192,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.62971065522699</v>
+        <v>1.646558361239248</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.106060018047978</v>
@@ -31545,7 +31281,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.617304190139834</v>
+        <v>1.627437550510714</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.12971166299753</v>
@@ -31634,7 +31370,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.615408700298828</v>
+        <v>1.621981339873138</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.093705088994906</v>
@@ -31723,7 +31459,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.507238638701469</v>
+        <v>1.490442197647635</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>1.599844196843527</v>
@@ -31812,7 +31548,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.503900618038619</v>
+        <v>1.486184348379721</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>1.601901550380384</v>
@@ -31901,7 +31637,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.496855820453408</v>
+        <v>1.478113408932027</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>1.593164048549616</v>
@@ -31990,7 +31726,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.496044197326158</v>
+        <v>1.47477266042665</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>1.592943626425438</v>
@@ -32079,7 +31815,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.494818888444801</v>
+        <v>1.472694844339286</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>1.598004762741704</v>
@@ -32168,7 +31904,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.537387667775942</v>
+        <v>1.511572156418379</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>1.599773775071341</v>
@@ -32257,7 +31993,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.537507101678584</v>
+        <v>1.50852772632853</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>1.57225201600288</v>
@@ -32346,7 +32082,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.549160663825619</v>
+        <v>1.519056686093562</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>1.573290389376855</v>
@@ -32632,7 +32368,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.707373025104894</v>
+        <v>1.644749575165747</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.670615096388612</v>
@@ -32721,7 +32457,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.706751157757618</v>
+        <v>1.637385557734454</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.542657194202489</v>
@@ -32810,7 +32546,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.704644415487167</v>
+        <v>1.632052364384198</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.117985861010762</v>
@@ -32899,7 +32635,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.716215169643549</v>
+        <v>1.649406743315972</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.399567810744726</v>
@@ -32988,7 +32724,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.716198383136058</v>
+        <v>1.649402869749969</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.524905254395065</v>
@@ -33077,7 +32813,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.687480683454833</v>
+        <v>1.6279010779233</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.361433795989678</v>
@@ -33166,7 +32902,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.694001863456163</v>
+        <v>1.640894168619417</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.507656004830577</v>
@@ -33255,7 +32991,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.701810455607864</v>
+        <v>1.654515325467494</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.376327318770384</v>
@@ -33344,7 +33080,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.698709116582847</v>
+        <v>1.655753939706865</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.400115303382937</v>
@@ -33433,7 +33169,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.663880410859684</v>
+        <v>1.62178030217034</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.25598847588092</v>
@@ -33522,7 +33258,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.586993371398512</v>
+        <v>1.574127166539316</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.274750909991939</v>
@@ -33611,7 +33347,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.581922944851629</v>
+        <v>1.569177309172863</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.255431324787482</v>
@@ -33700,7 +33436,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.581784488177965</v>
+        <v>1.569849333702711</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.273258434103149</v>
@@ -33789,7 +33525,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.551958923468189</v>
+        <v>1.542304489298747</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.378728261043327</v>
@@ -33878,7 +33614,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.536971648751688</v>
+        <v>1.529657989532429</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.338395189366518</v>
@@ -33967,7 +33703,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.532345246663271</v>
+        <v>1.526622641265546</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.326448083388996</v>
@@ -34056,7 +33792,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.537527073999387</v>
+        <v>1.531312560843663</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.357885962943804</v>
@@ -34145,7 +33881,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.527447618675786</v>
+        <v>1.525788826088528</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.365736301228638</v>
@@ -34234,7 +33970,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.525358759238795</v>
+        <v>1.520962029183763</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.342682116343209</v>
@@ -34323,7 +34059,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.522227361133373</v>
+        <v>1.516946504986956</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.368045619959505</v>
@@ -34412,7 +34148,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.55126543543156</v>
+        <v>1.544086744178826</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.307069474814305</v>
@@ -34501,7 +34237,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.54587327283073</v>
+        <v>1.538956045541018</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.36309107280982</v>
@@ -34590,7 +34326,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.544182486261034</v>
+        <v>1.536035450273394</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.284780071929206</v>
@@ -34679,7 +34415,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.552239386851287</v>
+        <v>1.541154412288853</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.307224095374891</v>
@@ -34768,7 +34504,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.594333601285564</v>
+        <v>1.576936863930397</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.307867770548844</v>
@@ -34857,7 +34593,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.634192473283981</v>
+        <v>1.603116182588923</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.618525219801346</v>
@@ -34946,7 +34682,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.644008072248629</v>
+        <v>1.613617852719906</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.574944308436969</v>
@@ -35035,7 +34771,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.642085620227568</v>
+        <v>1.617418388923733</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.783064094238898</v>
@@ -35124,7 +34860,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.674666816191601</v>
+        <v>1.644373845902946</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.960010217866143</v>
@@ -35213,7 +34949,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.696096567723972</v>
+        <v>1.662787852494499</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.089022642482886</v>
@@ -35302,7 +35038,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.692518169887776</v>
+        <v>1.663235503443033</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.395225254242502</v>
@@ -35391,7 +35127,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.70731940692316</v>
+        <v>1.67474711714938</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.614562047660136</v>
@@ -35480,7 +35216,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.712380464319212</v>
+        <v>1.68448677434824</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.633832900768666</v>
@@ -35569,7 +35305,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.700780875142142</v>
+        <v>1.67699849895178</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.751611149259142</v>
@@ -35658,7 +35394,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.709235486100247</v>
+        <v>1.68606359483619</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.084558117981752</v>
@@ -35747,7 +35483,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.707230841055005</v>
+        <v>1.685422675540195</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.363620623058805</v>
@@ -35836,7 +35572,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.715581743354288</v>
+        <v>1.691854283670117</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.772661169941767</v>
@@ -35925,7 +35661,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.710364489252336</v>
+        <v>1.693011735673047</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.563943858702834</v>
@@ -36014,7 +35750,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.712278998680451</v>
+        <v>1.688595677857216</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.743422605259476</v>
@@ -36103,7 +35839,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.720728650379798</v>
+        <v>1.692466376844535</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.109325262127925</v>
@@ -36192,7 +35928,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.708302664251506</v>
+        <v>1.688081226622498</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.639984169868261</v>
@@ -36281,7 +36017,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.699966536082265</v>
+        <v>1.678443288793796</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.597179115952466</v>
@@ -36370,7 +36106,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.70610705206823</v>
+        <v>1.680791226944751</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.673654076877772</v>
@@ -36459,7 +36195,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.699862242739657</v>
+        <v>1.670884912612342</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.902092453620889</v>
@@ -36548,7 +36284,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.707777394662202</v>
+        <v>1.676891381074279</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.439515082907705</v>
@@ -36637,7 +36373,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.713284339012862</v>
+        <v>1.684080304438688</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.544079505931978</v>
@@ -36726,7 +36462,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.717700974902061</v>
+        <v>1.685834900189657</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.40718631130279</v>
@@ -36815,7 +36551,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.715827663798223</v>
+        <v>1.684776534219988</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.479751984898928</v>
@@ -36904,7 +36640,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.717619526955996</v>
+        <v>1.678652109064521</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.237005926275233</v>
@@ -36993,7 +36729,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.661351134895906</v>
+        <v>1.642008099407124</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.292139243723304</v>
@@ -37082,7 +36818,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.618392106918147</v>
+        <v>1.608853345564517</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.313207382117208</v>
@@ -37171,7 +36907,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.617834186916029</v>
+        <v>1.603107298169103</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.365879082100994</v>
@@ -37260,7 +36996,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.597866357515122</v>
+        <v>1.572489492526495</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.338349659732576</v>
@@ -37349,7 +37085,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.564410881089357</v>
+        <v>1.546069505610349</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.441897926833283</v>
@@ -37438,7 +37174,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.558054166719397</v>
+        <v>1.543638784986479</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.440097703982637</v>
@@ -37527,7 +37263,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.560134852541712</v>
+        <v>1.541163583614286</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.367785979146182</v>
@@ -37616,7 +37352,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.532035145693447</v>
+        <v>1.524772038300666</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.332156553503785</v>
@@ -37705,7 +37441,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.498272912087983</v>
+        <v>1.490927201922553</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.310175367971461</v>
@@ -37794,7 +37530,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.501549982405446</v>
+        <v>1.498274741153506</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.284885840632792</v>
@@ -37883,7 +37619,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.499549817185083</v>
+        <v>1.49319789430969</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.305961426073484</v>
@@ -37972,7 +37708,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.493546291661023</v>
+        <v>1.484054240178118</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.302327417659149</v>
@@ -38061,7 +37797,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.488927044110183</v>
+        <v>1.48030314549233</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.208517837846443</v>
@@ -38150,7 +37886,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.481748428521217</v>
+        <v>1.474504375353121</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.259473169785936</v>
@@ -38239,7 +37975,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.498465804642324</v>
+        <v>1.488376723821465</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.152096262303066</v>
@@ -38328,7 +38064,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.510587651420676</v>
+        <v>1.496690885800109</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.349602561653576</v>
@@ -38417,7 +38153,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.537954170050955</v>
+        <v>1.518865747560026</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.291732803135188</v>
@@ -38506,7 +38242,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.540474859998272</v>
+        <v>1.522556026561086</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.375311920900657</v>
@@ -38595,7 +38331,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.567696634829898</v>
+        <v>1.558179118225443</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.137592669015461</v>
@@ -38684,7 +38420,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.582569245814639</v>
+        <v>1.573564351824495</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.170898914369024</v>
@@ -38773,7 +38509,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.532834495281404</v>
+        <v>1.524732531769289</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.059432630195849</v>
@@ -38862,7 +38598,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.534218398470536</v>
+        <v>1.532763755410388</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.150988909112681</v>
@@ -38951,7 +38687,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.561276596928978</v>
+        <v>1.547326762117959</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.008826807896459</v>
@@ -39040,7 +38776,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.567131211360425</v>
+        <v>1.549742476851347</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.949519501692794</v>
@@ -39129,7 +38865,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.566977559546501</v>
+        <v>1.541599831035321</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.01000469525212</v>
@@ -39218,7 +38954,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.562422126192218</v>
+        <v>1.543334653378902</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.003042799586177</v>
@@ -39307,7 +39043,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.563818620669902</v>
+        <v>1.544872142615717</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.021317102648632</v>
@@ -39396,7 +39132,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.567887849795413</v>
+        <v>1.541126188211037</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.013488525627122</v>
@@ -39485,7 +39221,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.565426347842108</v>
+        <v>1.533703659655336</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.040408207746747</v>
@@ -39574,7 +39310,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.568505306716558</v>
+        <v>1.530258355762586</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.046791373425376</v>
@@ -39663,7 +39399,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.454968238674231</v>
+        <v>1.411113930621925</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>1.57094184782916</v>
@@ -39752,7 +39488,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.438380097198038</v>
+        <v>1.395223638831783</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>1.57708334561478</v>
@@ -39841,7 +39577,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.440391694929443</v>
+        <v>1.399163094122783</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>1.575477250217174</v>
@@ -39930,7 +39666,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.439467033271228</v>
+        <v>1.399982870866061</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>1.570379498786334</v>
@@ -40019,7 +39755,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.443955007467435</v>
+        <v>1.403914293417217</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>1.585853683568664</v>
@@ -40108,7 +39844,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.479498616377731</v>
+        <v>1.433580212356783</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>1.574638479442421</v>
@@ -40197,7 +39933,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.484462310806985</v>
+        <v>1.436126933992817</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>1.554635991667142</v>
@@ -40286,7 +40022,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.486227094845298</v>
+        <v>1.441678019604324</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>1.557600719799006</v>
@@ -40572,7 +40308,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.624222129174425</v>
+        <v>1.602281639668106</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.919169083746101</v>
@@ -40661,7 +40397,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.630667563438272</v>
+        <v>1.601669289048657</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.896090751755502</v>
@@ -40750,7 +40486,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.631188378227046</v>
+        <v>1.596910020904156</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.821842376330828</v>
@@ -40839,7 +40575,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.642093599758349</v>
+        <v>1.596584715299558</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.770267303846753</v>
@@ -40928,7 +40664,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.669792585823478</v>
+        <v>1.614779272254991</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.78696881991056</v>
@@ -41017,7 +40753,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.525356864723221</v>
+        <v>1.49274065532196</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.668123482888856</v>
@@ -41106,7 +40842,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.46792758089427</v>
+        <v>1.447854212574905</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.695200083610544</v>
@@ -41195,7 +40931,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.46948299728047</v>
+        <v>1.456632678439107</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.690942870772763</v>
@@ -41284,7 +41020,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.449722112944815</v>
+        <v>1.436186908950407</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.699505481688144</v>
@@ -41373,7 +41109,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.389051172300441</v>
+        <v>1.383445532366578</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.737552658354779</v>
@@ -41462,7 +41198,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.374220219633741</v>
+        <v>1.369150184092798</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.752057818630617</v>
@@ -41551,7 +41287,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.371223649284763</v>
+        <v>1.36379227357571</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.747538171670544</v>
@@ -41640,7 +41376,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.372188438723096</v>
+        <v>1.363533981497451</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.750221706813165</v>
@@ -41729,7 +41465,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.345115502792663</v>
+        <v>1.334690149826728</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.759329017244885</v>
@@ -41818,7 +41554,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.335030110032153</v>
+        <v>1.328968010949449</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.778084000831755</v>
@@ -41907,7 +41643,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.324762017755012</v>
+        <v>1.319604172209593</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.767380962951145</v>
@@ -41996,7 +41732,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.321937794580122</v>
+        <v>1.319453566304133</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.78694267311347</v>
@@ -42085,7 +41821,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.315688191258902</v>
+        <v>1.316086059832839</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.777714766709735</v>
@@ -42174,7 +41910,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.314425380714509</v>
+        <v>1.31684643419899</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.780200621047918</v>
@@ -42263,7 +41999,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.31839974871268</v>
+        <v>1.32172969198637</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.759502172470149</v>
@@ -42352,7 +42088,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.381794730038759</v>
+        <v>1.38432204124248</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.85425537102644</v>
@@ -42441,7 +42177,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.391971020989677</v>
+        <v>1.394507072653293</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.957244466386915</v>
@@ -42530,7 +42266,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.389847126944868</v>
+        <v>1.388835305733537</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.958480144037085</v>
@@ -42619,7 +42355,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.415349944637079</v>
+        <v>1.40849238048475</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.791843506262877</v>
@@ -42708,7 +42444,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.475346198856796</v>
+        <v>1.465688738259513</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.119276286185539</v>
@@ -42797,7 +42533,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.493765818048265</v>
+        <v>1.483788043454761</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.428481713702284</v>
@@ -42886,7 +42622,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.50318939278888</v>
+        <v>1.495455409268569</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.449504714184843</v>
@@ -42975,7 +42711,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.523473800477393</v>
+        <v>1.512443799071198</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.353708339838142</v>
@@ -43064,7 +42800,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.613118506549876</v>
+        <v>1.581196343187035</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.377955823742476</v>
@@ -43153,7 +42889,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.640458036608551</v>
+        <v>1.603846812287488</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.482503660357953</v>
@@ -43242,7 +42978,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.653203463075977</v>
+        <v>1.610909546231861</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.921091917631318</v>
@@ -43331,7 +43067,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.646181784750548</v>
+        <v>1.610721774604338</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.109605460305115</v>
@@ -43420,7 +43156,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.642230208544116</v>
+        <v>1.606332877301259</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.155503475325366</v>
@@ -43509,7 +43245,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.632670402934109</v>
+        <v>1.59586475115876</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.986251312280814</v>
@@ -43598,7 +43334,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.597863437972114</v>
+        <v>1.566141119664098</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.935202070764011</v>
@@ -43687,7 +43423,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.565301823824039</v>
+        <v>1.538802495699577</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.650355992875239</v>
@@ -43776,7 +43512,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.558231961018642</v>
+        <v>1.539264046508602</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.626662050061019</v>
@@ -43865,7 +43601,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.564578038698196</v>
+        <v>1.546431546315195</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.53189006639803</v>
@@ -43954,7 +43690,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.567021192049946</v>
+        <v>1.546283924356967</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.588023785345914</v>
@@ -44043,7 +43779,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.5617489324244</v>
+        <v>1.526957836878237</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.325461690668118</v>
@@ -44132,7 +43868,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.526191011823303</v>
+        <v>1.515257612121211</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.457987643298451</v>
@@ -44221,7 +43957,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.517350198376867</v>
+        <v>1.508318871734729</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.428808600572586</v>
@@ -44310,7 +44046,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.498482809392302</v>
+        <v>1.496826393180643</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.452410753910637</v>
@@ -44399,7 +44135,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.481994109319094</v>
+        <v>1.486603251243171</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.352626940725376</v>
@@ -44488,7 +44224,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.482171094677781</v>
+        <v>1.483962176139062</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.313397109456888</v>
@@ -44577,7 +44313,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.470708719995052</v>
+        <v>1.483152015499077</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.398274244279734</v>
@@ -44666,7 +44402,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.47791439883617</v>
+        <v>1.486598945507434</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.40774013719312</v>
@@ -44755,7 +44491,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.481696256942387</v>
+        <v>1.491141416358311</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.364161720095225</v>
@@ -44844,7 +44580,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.468094749177257</v>
+        <v>1.46779015414053</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.746151352678866</v>
@@ -44933,7 +44669,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.389248136102426</v>
+        <v>1.396571226092723</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.780322330286012</v>
@@ -45022,7 +44758,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.36526080035254</v>
+        <v>1.372997298964698</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.79782451630377</v>
@@ -45111,7 +44847,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.375227905587541</v>
+        <v>1.362396992239323</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.825969288879237</v>
@@ -45200,7 +44936,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.324169488502097</v>
+        <v>1.304762583376763</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.622315528671215</v>
@@ -45289,7 +45025,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.237227582296178</v>
+        <v>1.225027952815604</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.651664683698302</v>
@@ -45378,7 +45114,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.237541569292874</v>
+        <v>1.225301775733131</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.664805774530005</v>
@@ -45467,7 +45203,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.239306116806765</v>
+        <v>1.226462249172787</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.656078325010978</v>
@@ -45556,7 +45292,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.227378622845728</v>
+        <v>1.210490596598795</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.694877175363394</v>
@@ -45645,7 +45381,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.219431590198173</v>
+        <v>1.201317330585211</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.697995318558706</v>
@@ -45734,7 +45470,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.21848412141072</v>
+        <v>1.201033438652945</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.705147384856232</v>
@@ -45823,7 +45559,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.220040395866088</v>
+        <v>1.202717065661895</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.705971906836384</v>
@@ -45912,7 +45648,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.221568133978168</v>
+        <v>1.203344376741686</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.706534945113019</v>
@@ -46001,7 +45737,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.221344185065053</v>
+        <v>1.203562851091532</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.701820632370487</v>
@@ -46090,7 +45826,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.222674000541496</v>
+        <v>1.20513869862678</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.699759505731459</v>
@@ -46179,7 +45915,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.235200272281569</v>
+        <v>1.214134233173449</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.700769394348304</v>
@@ -46268,7 +46004,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.232657983201376</v>
+        <v>1.213616007752917</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.680601623469746</v>
@@ -46357,7 +46093,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.242122360679878</v>
+        <v>1.222086471479768</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.672227478941579</v>
@@ -46446,7 +46182,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.247694128845966</v>
+        <v>1.225622799750344</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.53875859033078</v>
@@ -46535,7 +46271,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.309228203407426</v>
+        <v>1.298011408888968</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.41814261005673</v>
@@ -46624,7 +46360,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.360140832452766</v>
+        <v>1.349202149087238</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.706398723499081</v>
@@ -46713,7 +46449,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.259062431219615</v>
+        <v>1.243321635920313</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.575928949993769</v>
@@ -46802,7 +46538,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.226141121401482</v>
+        <v>1.22436821781588</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.596871463902923</v>
@@ -46891,7 +46627,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.229384348100134</v>
+        <v>1.234477797793404</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.570867298118263</v>
@@ -46980,7 +46716,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.235397934725337</v>
+        <v>1.228800401995514</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.577493155027601</v>
@@ -47069,7 +46805,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.25945098777316</v>
+        <v>1.232572724249357</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.644975548110376</v>
@@ -47158,7 +46894,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.255376543159554</v>
+        <v>1.228040460696699</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.68515961163744</v>
@@ -47247,7 +46983,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.255436269826141</v>
+        <v>1.227528769308445</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.699026033861977</v>
@@ -47336,7 +47072,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.256319607218502</v>
+        <v>1.226631272177096</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>1.701397085731293</v>
@@ -47425,7 +47161,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.256076223919278</v>
+        <v>1.225462442598744</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>1.707335559794455</v>
@@ -47514,7 +47250,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.253716059625152</v>
+        <v>1.221834100596174</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>1.723282043959301</v>
@@ -47603,7 +47339,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.240894550229807</v>
+        <v>1.184635776981682</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>1.43076706724053</v>
@@ -47692,7 +47428,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.233878200245521</v>
+        <v>1.179063055196004</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>1.434427199596022</v>
@@ -47781,7 +47517,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.231605536679722</v>
+        <v>1.177498808785484</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>1.43485410612266</v>
@@ -47870,7 +47606,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.233201789544897</v>
+        <v>1.178586287999122</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>1.435225669135533</v>
@@ -47959,7 +47695,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.236113129671946</v>
+        <v>1.180331113866167</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>1.437598999388622</v>
@@ -48048,7 +47784,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.271864407809723</v>
+        <v>1.206695649257666</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>1.41783633806919</v>
@@ -48137,7 +47873,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.280293039197288</v>
+        <v>1.212036548749337</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>1.393816812212004</v>
@@ -48226,7 +47962,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.290750266282771</v>
+        <v>1.218946306662078</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>1.395350454369688</v>
@@ -48512,7 +48248,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.606849021549134</v>
+        <v>1.647941820322115</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.8322914561272</v>
@@ -48601,7 +48337,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.624647104199913</v>
+        <v>1.671903911741654</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.874749770847574</v>
@@ -48690,7 +48426,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.638589334517034</v>
+        <v>1.680851374801577</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.723696418772156</v>
@@ -48779,7 +48515,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.666796304353035</v>
+        <v>1.708384781322928</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.120207002733987</v>
@@ -48868,7 +48604,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.70839793204914</v>
+        <v>1.744504563565651</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.347861026708554</v>
@@ -48957,7 +48693,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.674045657422003</v>
+        <v>1.703405472637967</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.280479222006936</v>
@@ -49046,7 +48782,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.685564230898681</v>
+        <v>1.720305837546758</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.312277632172571</v>
@@ -49135,7 +48871,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.707178874607739</v>
+        <v>1.741307031054603</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.390014921760919</v>
@@ -49224,7 +48960,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.693960831550018</v>
+        <v>1.727568118631146</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.336226878479131</v>
@@ -49313,7 +49049,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.66716245452483</v>
+        <v>1.698752492246072</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.355405625813619</v>
@@ -49402,7 +49138,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.648008637502022</v>
+        <v>1.681700791883406</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.368328093561087</v>
@@ -49491,7 +49227,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.643762844434742</v>
+        <v>1.674733723958591</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.349700591546541</v>
@@ -49580,7 +49316,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.659587306311263</v>
+        <v>1.686934556054177</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.380087547001391</v>
@@ -49669,7 +49405,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.648383978724861</v>
+        <v>1.676196281511324</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.345235812735973</v>
@@ -49758,7 +49494,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.628924165132632</v>
+        <v>1.645745244328555</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.35698303040877</v>
@@ -49847,7 +49583,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.608610307279706</v>
+        <v>1.631225524320008</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.323018685037587</v>
@@ -49936,7 +49672,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.60163860419368</v>
+        <v>1.621501751837752</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.327176479011058</v>
@@ -50025,7 +49761,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.598109163049984</v>
+        <v>1.618690182581073</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.352126402533225</v>
@@ -50114,7 +49850,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.583695832363681</v>
+        <v>1.605404677603407</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.372152207145859</v>
@@ -50203,7 +49939,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.574459156327498</v>
+        <v>1.599278427238757</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.2995767000273</v>
@@ -50292,7 +50028,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.632953993558388</v>
+        <v>1.654794045687644</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.801721728789258</v>
@@ -50381,7 +50117,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.633518018730093</v>
+        <v>1.657479336439287</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.742739164483793</v>
@@ -50470,7 +50206,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.634764242207501</v>
+        <v>1.657286518898773</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.833513279698901</v>
@@ -50559,7 +50295,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.636922203138458</v>
+        <v>1.659908011354004</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.503713721374782</v>
@@ -50648,7 +50384,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.66895659864605</v>
+        <v>1.693654099218316</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.86819735405478</v>
@@ -50737,7 +50473,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.686063244201527</v>
+        <v>1.709023513990847</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.834897096890272</v>
@@ -50826,7 +50562,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.690651443911816</v>
+        <v>1.712870687064874</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.823742603998936</v>
@@ -50915,7 +50651,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.685183406187025</v>
+        <v>1.711993436108274</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.722133611039966</v>
@@ -51004,7 +50740,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.685058330905609</v>
+        <v>1.711247844508873</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.667497952543371</v>
@@ -51093,7 +50829,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.72753229409186</v>
+        <v>1.750021416550262</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.723324842200333</v>
@@ -51182,7 +50918,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.727045213790185</v>
+        <v>1.75609665931107</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.2056664213177</v>
@@ -51271,7 +51007,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.716230394310964</v>
+        <v>1.746291203640825</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.232227952344712</v>
@@ -51360,7 +51096,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.709057750750966</v>
+        <v>1.737741266486759</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.95324633159367</v>
@@ -51449,7 +51185,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.72447542022965</v>
+        <v>1.752946322859779</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.095422212073164</v>
@@ -51538,7 +51274,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.716112199425312</v>
+        <v>1.748927028677369</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.873454506182341</v>
@@ -51627,7 +51363,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.694864890277817</v>
+        <v>1.726202251824988</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.899350586587549</v>
@@ -51716,7 +51452,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.687243538689258</v>
+        <v>1.7146229253128</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.984726292993184</v>
@@ -51805,7 +51541,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.683892487459357</v>
+        <v>1.710515561458331</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.799566140124591</v>
@@ -51894,7 +51630,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.686772814862263</v>
+        <v>1.709871340257037</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.973237432380508</v>
@@ -51983,7 +51719,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.688875410092797</v>
+        <v>1.705314953043314</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.238604343625892</v>
@@ -52072,7 +51808,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.683522907266177</v>
+        <v>1.700098456806265</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.991535366982098</v>
@@ -52161,7 +51897,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.671678915467239</v>
+        <v>1.687822092049466</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.146550042135739</v>
@@ -52250,7 +51986,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.658245918931246</v>
+        <v>1.674074617285235</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.006741136254049</v>
@@ -52339,7 +52075,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.652538158871836</v>
+        <v>1.662957543434638</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.955600613358445</v>
@@ -52428,7 +52164,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.653550571874691</v>
+        <v>1.668378482377425</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.021345169379936</v>
@@ -52517,7 +52253,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.665976876244522</v>
+        <v>1.679485263220736</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.118843691498493</v>
@@ -52606,7 +52342,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.675314960149024</v>
+        <v>1.687205750179545</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.888291859128489</v>
@@ -52695,7 +52431,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.674907587873903</v>
+        <v>1.687669734668661</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.113724247618938</v>
@@ -52784,7 +52520,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.671933245861002</v>
+        <v>1.67642324410197</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.380603355512175</v>
@@ -52873,7 +52609,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.632108652393993</v>
+        <v>1.645447620144148</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.288589631076228</v>
@@ -52962,7 +52698,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.609745436671511</v>
+        <v>1.627405864017151</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.303492183058299</v>
@@ -53051,7 +52787,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.60781734339578</v>
+        <v>1.619650194913206</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.287361874783157</v>
@@ -53140,7 +52876,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.609767959416079</v>
+        <v>1.610623562288547</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.272669124641593</v>
@@ -53229,7 +52965,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.597312803364721</v>
+        <v>1.598774840448187</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.31404231115183</v>
@@ -53318,7 +53054,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.584299361110115</v>
+        <v>1.589143077106606</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.388332476066909</v>
@@ -53407,7 +53143,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.581893232655241</v>
+        <v>1.590709395360472</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.361088055414658</v>
@@ -53496,7 +53232,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.536464019667522</v>
+        <v>1.544488172022697</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.300956305242721</v>
@@ -53585,7 +53321,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.511963805501682</v>
+        <v>1.519267209057971</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.307353802006306</v>
@@ -53674,7 +53410,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.507211673919865</v>
+        <v>1.517038594520419</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.284891473777549</v>
@@ -53763,7 +53499,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.502978125029132</v>
+        <v>1.514567876806199</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.326383584010836</v>
@@ -53852,7 +53588,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.489093283598901</v>
+        <v>1.498621167735837</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.284966488644077</v>
@@ -53941,7 +53677,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.489318413181907</v>
+        <v>1.502423905553087</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.252997997868393</v>
@@ -54030,7 +53766,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.49731180193866</v>
+        <v>1.510737077074988</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.233414277302101</v>
@@ -54119,7 +53855,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.507678472227425</v>
+        <v>1.519744773102292</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.144995961203762</v>
@@ -54208,7 +53944,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.510431478820471</v>
+        <v>1.524841697962984</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.353241507289727</v>
@@ -54297,7 +54033,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.527417565424783</v>
+        <v>1.54404407926848</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.306035631897011</v>
@@ -54386,7 +54122,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.534681383262389</v>
+        <v>1.55778501073062</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.336488680441168</v>
@@ -54475,7 +54211,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.521987754990853</v>
+        <v>1.559649280029165</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.178004150558446</v>
@@ -54564,7 +54300,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.531925849375521</v>
+        <v>1.570153993243364</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.165038696950564</v>
@@ -54653,7 +54389,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.479488317354277</v>
+        <v>1.512327416097835</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.039261856225341</v>
@@ -54742,7 +54478,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.467785790672877</v>
+        <v>1.504799163083666</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.075036491738441</v>
@@ -54831,7 +54567,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.51773185927044</v>
+        <v>1.558813622635314</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.029745036549393</v>
@@ -54920,7 +54656,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.532185957460583</v>
+        <v>1.569002966402601</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.983914414501019</v>
@@ -55009,7 +54745,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.539926913876486</v>
+        <v>1.571425700936272</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.030066979637176</v>
@@ -55098,7 +54834,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.538546542587239</v>
+        <v>1.570122966487549</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.041962760761542</v>
@@ -55187,7 +54923,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.548612648837262</v>
+        <v>1.576483519228582</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.071629792316462</v>
@@ -55276,7 +55012,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.5417893419733</v>
+        <v>1.562182016681107</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.028895316072706</v>
@@ -55365,7 +55101,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.531189311546957</v>
+        <v>1.549136582734687</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.010593040539769</v>
@@ -55454,7 +55190,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.51359135625491</v>
+        <v>1.529169926076164</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.02930763656293</v>
@@ -55543,7 +55279,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.372217478400819</v>
+        <v>1.392113875951513</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>1.595027850258102</v>
@@ -55632,7 +55368,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.326121437759022</v>
+        <v>1.324794766257037</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>1.65421529772136</v>
@@ -55721,7 +55457,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.317529860061206</v>
+        <v>1.315283974989646</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>1.653884214289079</v>
@@ -55810,7 +55546,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.319187590574757</v>
+        <v>1.317107967712744</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>1.654456466048473</v>
@@ -55899,7 +55635,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.318905282533566</v>
+        <v>1.317675316535409</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>1.648483853260805</v>
@@ -55988,7 +55724,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.335881321995846</v>
+        <v>1.335785505293317</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>1.630910325484606</v>
@@ -56077,7 +55813,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.340162406688242</v>
+        <v>1.339374722680788</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>1.652387089873186</v>
@@ -56166,7 +55902,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.337687710566701</v>
+        <v>1.336722760963081</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>1.64352700433865</v>
